--- a/edisyn/synth/asmhydrasynth/info/nrpn.xlsx
+++ b/edisyn/synth/asmhydrasynth/info/nrpn.xlsx
@@ -2191,7 +2191,8 @@
     <t>[0,8192] seemingly only output in increments of 8, and displayed as [0.02 Hz ...150.00 Hz]. To display: if 8192, display 150.00Hz.  Else divide by 6.4 (cutting into 1280 even pieces).  Now we need to map to an exponential function to get the Hz value.  It seems the following function is a pretty close fit:  
 2^(1 + 0.012571 *  v) / 100   -I would then display as x.xx, perhaps rounded down.  Would be nice to know what their exact function is.</t>
+I would then display as x.xx, perhaps rounded down.  Would be nice to know what their exact function is.
+Edit: Benny Rönnhager manually went through the entire list, and reports the following values for all elements [0...8192] in multiples of 8, that is, [0...1024]:   LFO_RATES_SYNC_OFF    However I have not verified it yet.</t>
   </si>
   <si>
     <t>lfo1ratesyncon</t>
@@ -10341,7 +10342,7 @@
     <col min="1" max="1" width="22.1719" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.4375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.72656" style="1" customWidth="1"/>
-    <col min="4" max="4" width="74.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.8047" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10885,7 +10886,7 @@
       </c>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" ht="248.35" customHeight="1">
+    <row r="51" ht="260.35" customHeight="1">
       <c r="A51" t="s" s="6">
         <v>100</v>
       </c>
@@ -11741,7 +11742,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="127" ht="56.35" customHeight="1">
+    <row r="127" ht="68.35" customHeight="1">
       <c r="A127" t="s" s="6">
         <v>292</v>
       </c>
@@ -12241,7 +12242,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="167" ht="32.35" customHeight="1">
+    <row r="167" ht="44.35" customHeight="1">
       <c r="A167" t="s" s="6">
         <v>407</v>
       </c>
@@ -12449,7 +12450,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="184" ht="56.35" customHeight="1">
+    <row r="184" ht="68.35" customHeight="1">
       <c r="A184" t="s" s="6">
         <v>452</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="191" ht="116.35" customHeight="1">
+    <row r="191" ht="164.35" customHeight="1">
       <c r="A191" t="s" s="6">
         <v>467</v>
       </c>
@@ -12559,7 +12560,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="193" ht="104.35" customHeight="1">
+    <row r="193" ht="116.35" customHeight="1">
       <c r="A193" t="s" s="6">
         <v>474</v>
       </c>
@@ -16337,7 +16338,7 @@
       </c>
       <c r="D568" s="9"/>
     </row>
-    <row r="569" ht="188.35" customHeight="1">
+    <row r="569" ht="200.35" customHeight="1">
       <c r="A569" t="s" s="6">
         <v>1191</v>
       </c>
@@ -16375,7 +16376,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="572" ht="200.35" customHeight="1">
+    <row r="572" ht="212.35" customHeight="1">
       <c r="A572" t="s" s="6">
         <v>1201</v>
       </c>
@@ -16403,7 +16404,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="574" ht="200.35" customHeight="1">
+    <row r="574" ht="212.35" customHeight="1">
       <c r="A574" t="s" s="6">
         <v>1208</v>
       </c>
@@ -17687,7 +17688,7 @@
       </c>
       <c r="D691" s="9"/>
     </row>
-    <row r="692" ht="44.35" customHeight="1">
+    <row r="692" ht="56.35" customHeight="1">
       <c r="A692" t="s" s="6">
         <v>1448</v>
       </c>
@@ -22151,7 +22152,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="1123" ht="104.35" customHeight="1">
+    <row r="1123" ht="116.35" customHeight="1">
       <c r="A1123" t="s" s="26">
         <v>2204</v>
       </c>
@@ -22227,7 +22228,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="1129" ht="164.35" customHeight="1">
+    <row r="1129" ht="248.35" customHeight="1">
       <c r="A1129" t="s" s="26">
         <v>2212</v>
       </c>
@@ -22779,7 +22780,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="1180" ht="44.35" customHeight="1">
+    <row r="1180" ht="56.35" customHeight="1">
       <c r="A1180" t="s" s="6">
         <v>2296</v>
       </c>
@@ -22791,7 +22792,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="1181" ht="20.35" customHeight="1">
+    <row r="1181" ht="32.35" customHeight="1">
       <c r="A1181" t="s" s="6">
         <v>2299</v>
       </c>
@@ -22803,7 +22804,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="1182" ht="20.35" customHeight="1">
+    <row r="1182" ht="32.35" customHeight="1">
       <c r="A1182" t="s" s="6">
         <v>2302</v>
       </c>
@@ -22815,7 +22816,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="1183" ht="20.35" customHeight="1">
+    <row r="1183" ht="32.35" customHeight="1">
       <c r="A1183" t="s" s="6">
         <v>2304</v>
       </c>
@@ -22827,7 +22828,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="1184" ht="20.35" customHeight="1">
+    <row r="1184" ht="32.35" customHeight="1">
       <c r="A1184" t="s" s="6">
         <v>2306</v>
       </c>
@@ -22839,7 +22840,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="1185" ht="44.35" customHeight="1">
+    <row r="1185" ht="56.35" customHeight="1">
       <c r="A1185" t="s" s="6">
         <v>2308</v>
       </c>
@@ -22851,7 +22852,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="1186" ht="20.35" customHeight="1">
+    <row r="1186" ht="32.35" customHeight="1">
       <c r="A1186" t="s" s="6">
         <v>2310</v>
       </c>
@@ -22863,7 +22864,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="1187" ht="20.35" customHeight="1">
+    <row r="1187" ht="32.35" customHeight="1">
       <c r="A1187" t="s" s="6">
         <v>2312</v>
       </c>
@@ -22875,7 +22876,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="1188" ht="20.35" customHeight="1">
+    <row r="1188" ht="32.35" customHeight="1">
       <c r="A1188" t="s" s="6">
         <v>2314</v>
       </c>
@@ -22887,7 +22888,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="1189" ht="20.35" customHeight="1">
+    <row r="1189" ht="32.35" customHeight="1">
       <c r="A1189" t="s" s="6">
         <v>2316</v>
       </c>
@@ -24205,7 +24206,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="1309" ht="44.35" customHeight="1">
+    <row r="1309" ht="56.35" customHeight="1">
       <c r="A1309" t="s" s="6">
         <v>2341</v>
       </c>

--- a/edisyn/synth/asmhydrasynth/info/nrpn.xlsx
+++ b/edisyn/synth/asmhydrasynth/info/nrpn.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2388">
   <si>
     <t>Table 1</t>
   </si>
@@ -6020,6 +6020,54 @@
     <t>0x36 0x57</t>
   </si>
   <si>
+    <t>macro6target1</t>
+  </si>
+  <si>
+    <t>0x3E 0x58</t>
+  </si>
+  <si>
+    <t>macro6target2</t>
+  </si>
+  <si>
+    <t>0x3E 0x59</t>
+  </si>
+  <si>
+    <t>macro6target3</t>
+  </si>
+  <si>
+    <t>0x3E 0x60</t>
+  </si>
+  <si>
+    <t>macro6target4</t>
+  </si>
+  <si>
+    <t>0x3E 0x61</t>
+  </si>
+  <si>
+    <t>macro6target5</t>
+  </si>
+  <si>
+    <t>0x3E 0x62</t>
+  </si>
+  <si>
+    <t>macro6target6</t>
+  </si>
+  <si>
+    <t>0x3E 0x63</t>
+  </si>
+  <si>
+    <t>macro6target7</t>
+  </si>
+  <si>
+    <t>0x3E 0x64</t>
+  </si>
+  <si>
+    <t>macro6target8</t>
+  </si>
+  <si>
+    <t>0x3E 0x65</t>
+  </si>
+  <si>
     <t>macro6buttonvalue1</t>
   </si>
   <si>
@@ -6119,37 +6167,19 @@
     <t>macro7target1</t>
   </si>
   <si>
-    <t>0x3E 0x60</t>
-  </si>
-  <si>
     <t>macro7target2</t>
   </si>
   <si>
-    <t>0x3E 0x61</t>
-  </si>
-  <si>
     <t>macro7target3</t>
   </si>
   <si>
-    <t>0x3E 0x62</t>
-  </si>
-  <si>
     <t>macro7target4</t>
   </si>
   <si>
-    <t>0x3E 0x63</t>
-  </si>
-  <si>
     <t>macro7target5</t>
   </si>
   <si>
-    <t>0x3E 0x64</t>
-  </si>
-  <si>
     <t>macro7target6</t>
-  </si>
-  <si>
-    <t>0x3E 0x65</t>
   </si>
   <si>
     <t>macro7target7</t>
@@ -7353,13 +7383,7 @@
     <t>macro6trigger1</t>
   </si>
   <si>
-    <t>0x3E 0x58</t>
-  </si>
-  <si>
     <t>macro6trigger2</t>
-  </si>
-  <si>
-    <t>0x3E 0x59</t>
   </si>
   <si>
     <t>macro6trigger3</t>
@@ -18948,731 +18972,731 @@
     </row>
     <row r="816" ht="20.35" customHeight="1">
       <c r="A816" t="s" s="6">
-        <v>1652</v>
+        <v>1700</v>
       </c>
       <c r="B816" s="7"/>
       <c r="C816" t="s" s="8">
-        <v>1653</v>
+        <v>1701</v>
       </c>
       <c r="D816" s="9"/>
     </row>
     <row r="817" ht="20.35" customHeight="1">
       <c r="A817" t="s" s="6">
-        <v>1654</v>
+        <v>1702</v>
       </c>
       <c r="B817" s="7"/>
       <c r="C817" t="s" s="8">
-        <v>1655</v>
+        <v>1703</v>
       </c>
       <c r="D817" s="9"/>
     </row>
     <row r="818" ht="20.35" customHeight="1">
       <c r="A818" t="s" s="6">
-        <v>1656</v>
+        <v>1704</v>
       </c>
       <c r="B818" s="7"/>
       <c r="C818" t="s" s="8">
-        <v>1657</v>
+        <v>1705</v>
       </c>
       <c r="D818" s="9"/>
     </row>
     <row r="819" ht="20.35" customHeight="1">
       <c r="A819" t="s" s="6">
-        <v>1658</v>
+        <v>1706</v>
       </c>
       <c r="B819" s="7"/>
       <c r="C819" t="s" s="8">
-        <v>1659</v>
+        <v>1707</v>
       </c>
       <c r="D819" s="9"/>
     </row>
     <row r="820" ht="20.35" customHeight="1">
       <c r="A820" t="s" s="6">
-        <v>1660</v>
+        <v>1708</v>
       </c>
       <c r="B820" s="7"/>
       <c r="C820" t="s" s="8">
-        <v>1661</v>
+        <v>1709</v>
       </c>
       <c r="D820" s="9"/>
     </row>
     <row r="821" ht="20.35" customHeight="1">
       <c r="A821" t="s" s="6">
-        <v>1662</v>
+        <v>1710</v>
       </c>
       <c r="B821" s="7"/>
       <c r="C821" t="s" s="8">
-        <v>1663</v>
+        <v>1711</v>
       </c>
       <c r="D821" s="9"/>
     </row>
     <row r="822" ht="20.35" customHeight="1">
       <c r="A822" t="s" s="6">
-        <v>1664</v>
+        <v>1712</v>
       </c>
       <c r="B822" s="7"/>
       <c r="C822" t="s" s="8">
-        <v>1665</v>
+        <v>1713</v>
       </c>
       <c r="D822" s="9"/>
     </row>
     <row r="823" ht="20.35" customHeight="1">
       <c r="A823" t="s" s="6">
-        <v>1666</v>
+        <v>1714</v>
       </c>
       <c r="B823" s="7"/>
       <c r="C823" t="s" s="8">
-        <v>1667</v>
+        <v>1715</v>
       </c>
       <c r="D823" s="9"/>
     </row>
     <row r="824" ht="20.35" customHeight="1">
       <c r="A824" t="s" s="6">
-        <v>1700</v>
+        <v>1716</v>
       </c>
       <c r="B824" s="7"/>
       <c r="C824" t="s" s="8">
-        <v>1701</v>
+        <v>1717</v>
       </c>
       <c r="D824" s="9"/>
     </row>
     <row r="825" ht="20.35" customHeight="1">
       <c r="A825" t="s" s="6">
-        <v>1702</v>
+        <v>1718</v>
       </c>
       <c r="B825" s="7"/>
       <c r="C825" t="s" s="8">
-        <v>1703</v>
+        <v>1719</v>
       </c>
       <c r="D825" s="9"/>
     </row>
     <row r="826" ht="20.35" customHeight="1">
       <c r="A826" t="s" s="6">
-        <v>1704</v>
+        <v>1720</v>
       </c>
       <c r="B826" s="7"/>
       <c r="C826" t="s" s="8">
-        <v>1705</v>
+        <v>1721</v>
       </c>
       <c r="D826" s="9"/>
     </row>
     <row r="827" ht="20.35" customHeight="1">
       <c r="A827" t="s" s="6">
-        <v>1706</v>
+        <v>1722</v>
       </c>
       <c r="B827" s="7"/>
       <c r="C827" t="s" s="8">
-        <v>1707</v>
+        <v>1723</v>
       </c>
       <c r="D827" s="9"/>
     </row>
     <row r="828" ht="20.35" customHeight="1">
       <c r="A828" t="s" s="6">
-        <v>1708</v>
+        <v>1724</v>
       </c>
       <c r="B828" s="7"/>
       <c r="C828" t="s" s="8">
-        <v>1709</v>
+        <v>1725</v>
       </c>
       <c r="D828" s="9"/>
     </row>
     <row r="829" ht="20.35" customHeight="1">
       <c r="A829" t="s" s="6">
-        <v>1710</v>
+        <v>1726</v>
       </c>
       <c r="B829" s="7"/>
       <c r="C829" t="s" s="8">
-        <v>1711</v>
+        <v>1727</v>
       </c>
       <c r="D829" s="9"/>
     </row>
     <row r="830" ht="20.35" customHeight="1">
       <c r="A830" t="s" s="6">
-        <v>1712</v>
+        <v>1728</v>
       </c>
       <c r="B830" s="7"/>
       <c r="C830" t="s" s="8">
-        <v>1713</v>
+        <v>1729</v>
       </c>
       <c r="D830" s="9"/>
     </row>
     <row r="831" ht="20.35" customHeight="1">
       <c r="A831" t="s" s="6">
-        <v>1714</v>
+        <v>1730</v>
       </c>
       <c r="B831" s="7"/>
       <c r="C831" t="s" s="8">
-        <v>1715</v>
+        <v>1731</v>
       </c>
       <c r="D831" s="9"/>
     </row>
     <row r="832" ht="20.35" customHeight="1">
       <c r="A832" t="s" s="6">
-        <v>1716</v>
+        <v>1732</v>
       </c>
       <c r="B832" s="7"/>
       <c r="C832" t="s" s="8">
-        <v>1717</v>
+        <v>1733</v>
       </c>
       <c r="D832" s="9"/>
     </row>
     <row r="833" ht="20.35" customHeight="1">
       <c r="A833" t="s" s="6">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="B833" s="7"/>
       <c r="C833" t="s" s="8">
-        <v>1719</v>
+        <v>1735</v>
       </c>
       <c r="D833" s="9"/>
     </row>
     <row r="834" ht="20.35" customHeight="1">
       <c r="A834" t="s" s="6">
-        <v>1720</v>
+        <v>1736</v>
       </c>
       <c r="B834" s="7"/>
       <c r="C834" t="s" s="8">
-        <v>1721</v>
+        <v>1737</v>
       </c>
       <c r="D834" s="9"/>
     </row>
     <row r="835" ht="20.35" customHeight="1">
       <c r="A835" t="s" s="6">
-        <v>1722</v>
+        <v>1738</v>
       </c>
       <c r="B835" s="7"/>
       <c r="C835" t="s" s="8">
-        <v>1723</v>
+        <v>1739</v>
       </c>
       <c r="D835" s="9"/>
     </row>
     <row r="836" ht="20.35" customHeight="1">
       <c r="A836" t="s" s="6">
-        <v>1724</v>
+        <v>1740</v>
       </c>
       <c r="B836" s="7"/>
       <c r="C836" t="s" s="8">
-        <v>1725</v>
+        <v>1741</v>
       </c>
       <c r="D836" s="9"/>
     </row>
     <row r="837" ht="20.35" customHeight="1">
       <c r="A837" t="s" s="6">
-        <v>1726</v>
+        <v>1742</v>
       </c>
       <c r="B837" s="7"/>
       <c r="C837" t="s" s="8">
-        <v>1727</v>
+        <v>1743</v>
       </c>
       <c r="D837" s="9"/>
     </row>
     <row r="838" ht="20.35" customHeight="1">
       <c r="A838" t="s" s="6">
-        <v>1728</v>
+        <v>1744</v>
       </c>
       <c r="B838" s="7"/>
       <c r="C838" t="s" s="8">
-        <v>1729</v>
+        <v>1745</v>
       </c>
       <c r="D838" s="9"/>
     </row>
     <row r="839" ht="20.35" customHeight="1">
       <c r="A839" t="s" s="6">
-        <v>1730</v>
+        <v>1746</v>
       </c>
       <c r="B839" s="7"/>
       <c r="C839" t="s" s="8">
-        <v>1731</v>
+        <v>1747</v>
       </c>
       <c r="D839" s="9"/>
     </row>
     <row r="840" ht="20.35" customHeight="1">
       <c r="A840" t="s" s="6">
-        <v>1732</v>
+        <v>1748</v>
       </c>
       <c r="B840" s="7"/>
       <c r="C840" t="s" s="8">
-        <v>1733</v>
+        <v>1705</v>
       </c>
       <c r="D840" s="9"/>
     </row>
     <row r="841" ht="20.35" customHeight="1">
       <c r="A841" t="s" s="6">
-        <v>1734</v>
+        <v>1749</v>
       </c>
       <c r="B841" s="7"/>
       <c r="C841" t="s" s="8">
-        <v>1735</v>
+        <v>1707</v>
       </c>
       <c r="D841" s="9"/>
     </row>
     <row r="842" ht="20.35" customHeight="1">
       <c r="A842" t="s" s="6">
-        <v>1736</v>
+        <v>1750</v>
       </c>
       <c r="B842" s="7"/>
       <c r="C842" t="s" s="8">
-        <v>1737</v>
+        <v>1709</v>
       </c>
       <c r="D842" s="9"/>
     </row>
     <row r="843" ht="20.35" customHeight="1">
       <c r="A843" t="s" s="6">
-        <v>1738</v>
+        <v>1751</v>
       </c>
       <c r="B843" s="7"/>
       <c r="C843" t="s" s="8">
-        <v>1739</v>
+        <v>1711</v>
       </c>
       <c r="D843" s="9"/>
     </row>
     <row r="844" ht="20.35" customHeight="1">
       <c r="A844" t="s" s="6">
-        <v>1740</v>
+        <v>1752</v>
       </c>
       <c r="B844" s="7"/>
       <c r="C844" t="s" s="8">
-        <v>1741</v>
+        <v>1713</v>
       </c>
       <c r="D844" s="9"/>
     </row>
     <row r="845" ht="20.35" customHeight="1">
       <c r="A845" t="s" s="6">
-        <v>1742</v>
+        <v>1753</v>
       </c>
       <c r="B845" s="7"/>
       <c r="C845" t="s" s="8">
-        <v>1743</v>
+        <v>1715</v>
       </c>
       <c r="D845" s="9"/>
     </row>
     <row r="846" ht="20.35" customHeight="1">
       <c r="A846" t="s" s="6">
-        <v>1744</v>
+        <v>1754</v>
       </c>
       <c r="B846" s="7"/>
       <c r="C846" t="s" s="8">
-        <v>1745</v>
+        <v>1755</v>
       </c>
       <c r="D846" s="9"/>
     </row>
     <row r="847" ht="20.35" customHeight="1">
       <c r="A847" t="s" s="6">
-        <v>1746</v>
+        <v>1756</v>
       </c>
       <c r="B847" s="7"/>
       <c r="C847" t="s" s="8">
-        <v>1747</v>
+        <v>1757</v>
       </c>
       <c r="D847" s="9"/>
     </row>
     <row r="848" ht="20.35" customHeight="1">
       <c r="A848" t="s" s="6">
-        <v>1748</v>
+        <v>1758</v>
       </c>
       <c r="B848" s="7"/>
       <c r="C848" t="s" s="8">
-        <v>1749</v>
+        <v>1759</v>
       </c>
       <c r="D848" s="9"/>
     </row>
     <row r="849" ht="20.35" customHeight="1">
       <c r="A849" t="s" s="6">
-        <v>1750</v>
+        <v>1760</v>
       </c>
       <c r="B849" s="7"/>
       <c r="C849" t="s" s="8">
-        <v>1751</v>
+        <v>1761</v>
       </c>
       <c r="D849" s="9"/>
     </row>
     <row r="850" ht="20.35" customHeight="1">
       <c r="A850" t="s" s="6">
-        <v>1752</v>
+        <v>1762</v>
       </c>
       <c r="B850" s="7"/>
       <c r="C850" t="s" s="8">
-        <v>1753</v>
+        <v>1763</v>
       </c>
       <c r="D850" s="9"/>
     </row>
     <row r="851" ht="20.35" customHeight="1">
       <c r="A851" t="s" s="6">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="B851" s="7"/>
       <c r="C851" t="s" s="8">
-        <v>1755</v>
+        <v>1765</v>
       </c>
       <c r="D851" s="9"/>
     </row>
     <row r="852" ht="20.35" customHeight="1">
       <c r="A852" t="s" s="6">
-        <v>1756</v>
+        <v>1766</v>
       </c>
       <c r="B852" s="7"/>
       <c r="C852" t="s" s="8">
-        <v>1757</v>
+        <v>1767</v>
       </c>
       <c r="D852" s="9"/>
     </row>
     <row r="853" ht="20.35" customHeight="1">
       <c r="A853" t="s" s="6">
-        <v>1758</v>
+        <v>1768</v>
       </c>
       <c r="B853" s="7"/>
       <c r="C853" t="s" s="8">
-        <v>1759</v>
+        <v>1769</v>
       </c>
       <c r="D853" s="9"/>
     </row>
     <row r="854" ht="20.35" customHeight="1">
       <c r="A854" t="s" s="6">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="B854" s="7"/>
       <c r="C854" t="s" s="8">
-        <v>1761</v>
+        <v>1771</v>
       </c>
       <c r="D854" s="9"/>
     </row>
     <row r="855" ht="20.35" customHeight="1">
       <c r="A855" t="s" s="6">
-        <v>1762</v>
+        <v>1772</v>
       </c>
       <c r="B855" s="7"/>
       <c r="C855" t="s" s="8">
-        <v>1763</v>
+        <v>1773</v>
       </c>
       <c r="D855" s="9"/>
     </row>
     <row r="856" ht="20.35" customHeight="1">
       <c r="A856" t="s" s="6">
-        <v>1764</v>
+        <v>1774</v>
       </c>
       <c r="B856" s="7"/>
       <c r="C856" t="s" s="8">
-        <v>1765</v>
+        <v>1775</v>
       </c>
       <c r="D856" s="9"/>
     </row>
     <row r="857" ht="20.35" customHeight="1">
       <c r="A857" t="s" s="6">
-        <v>1766</v>
+        <v>1776</v>
       </c>
       <c r="B857" s="7"/>
       <c r="C857" t="s" s="8">
-        <v>1767</v>
+        <v>1777</v>
       </c>
       <c r="D857" s="9"/>
     </row>
     <row r="858" ht="20.35" customHeight="1">
       <c r="A858" t="s" s="6">
-        <v>1768</v>
+        <v>1778</v>
       </c>
       <c r="B858" s="7"/>
       <c r="C858" t="s" s="8">
-        <v>1769</v>
+        <v>1779</v>
       </c>
       <c r="D858" s="9"/>
     </row>
     <row r="859" ht="20.35" customHeight="1">
       <c r="A859" t="s" s="6">
-        <v>1770</v>
+        <v>1780</v>
       </c>
       <c r="B859" s="7"/>
       <c r="C859" t="s" s="8">
-        <v>1771</v>
+        <v>1781</v>
       </c>
       <c r="D859" s="9"/>
     </row>
     <row r="860" ht="20.35" customHeight="1">
       <c r="A860" t="s" s="6">
-        <v>1772</v>
+        <v>1782</v>
       </c>
       <c r="B860" s="7"/>
       <c r="C860" t="s" s="8">
-        <v>1773</v>
+        <v>1783</v>
       </c>
       <c r="D860" s="9"/>
     </row>
     <row r="861" ht="20.35" customHeight="1">
       <c r="A861" t="s" s="6">
-        <v>1774</v>
+        <v>1784</v>
       </c>
       <c r="B861" s="7"/>
       <c r="C861" t="s" s="8">
-        <v>1775</v>
+        <v>1785</v>
       </c>
       <c r="D861" s="9"/>
     </row>
     <row r="862" ht="20.35" customHeight="1">
       <c r="A862" t="s" s="6">
-        <v>1776</v>
+        <v>1786</v>
       </c>
       <c r="B862" s="7"/>
       <c r="C862" t="s" s="8">
-        <v>1777</v>
+        <v>1787</v>
       </c>
       <c r="D862" s="9"/>
     </row>
     <row r="863" ht="20.35" customHeight="1">
       <c r="A863" t="s" s="6">
-        <v>1778</v>
+        <v>1788</v>
       </c>
       <c r="B863" s="7"/>
       <c r="C863" t="s" s="8">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="D863" s="9"/>
     </row>
     <row r="864" ht="20.35" customHeight="1">
       <c r="A864" t="s" s="6">
-        <v>1780</v>
+        <v>1790</v>
       </c>
       <c r="B864" s="7"/>
       <c r="C864" t="s" s="8">
-        <v>1781</v>
+        <v>1791</v>
       </c>
       <c r="D864" s="9"/>
     </row>
     <row r="865" ht="20.35" customHeight="1">
       <c r="A865" t="s" s="6">
-        <v>1782</v>
+        <v>1792</v>
       </c>
       <c r="B865" s="7"/>
       <c r="C865" t="s" s="8">
-        <v>1783</v>
+        <v>1793</v>
       </c>
       <c r="D865" s="9"/>
     </row>
     <row r="866" ht="20.35" customHeight="1">
       <c r="A866" t="s" s="6">
-        <v>1784</v>
+        <v>1794</v>
       </c>
       <c r="B866" s="7"/>
       <c r="C866" t="s" s="8">
-        <v>1785</v>
+        <v>1795</v>
       </c>
       <c r="D866" s="9"/>
     </row>
     <row r="867" ht="20.35" customHeight="1">
       <c r="A867" t="s" s="6">
-        <v>1786</v>
+        <v>1796</v>
       </c>
       <c r="B867" s="7"/>
       <c r="C867" t="s" s="8">
-        <v>1787</v>
+        <v>1797</v>
       </c>
       <c r="D867" s="9"/>
     </row>
     <row r="868" ht="20.35" customHeight="1">
       <c r="A868" t="s" s="6">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="B868" s="7"/>
       <c r="C868" t="s" s="8">
-        <v>1789</v>
+        <v>1799</v>
       </c>
       <c r="D868" s="9"/>
     </row>
     <row r="869" ht="20.35" customHeight="1">
       <c r="A869" t="s" s="6">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="B869" s="7"/>
       <c r="C869" t="s" s="8">
-        <v>1791</v>
+        <v>1801</v>
       </c>
       <c r="D869" s="9"/>
     </row>
     <row r="870" ht="20.35" customHeight="1">
       <c r="A870" t="s" s="6">
-        <v>1792</v>
+        <v>1802</v>
       </c>
       <c r="B870" s="7"/>
       <c r="C870" t="s" s="8">
-        <v>1793</v>
+        <v>1803</v>
       </c>
       <c r="D870" s="9"/>
     </row>
     <row r="871" ht="20.35" customHeight="1">
       <c r="A871" t="s" s="6">
-        <v>1794</v>
+        <v>1804</v>
       </c>
       <c r="B871" s="7"/>
       <c r="C871" t="s" s="8">
-        <v>1795</v>
+        <v>1805</v>
       </c>
       <c r="D871" s="9"/>
     </row>
     <row r="872" ht="20.35" customHeight="1">
       <c r="A872" t="s" s="6">
-        <v>1796</v>
+        <v>1806</v>
       </c>
       <c r="B872" s="7"/>
       <c r="C872" t="s" s="8">
-        <v>1797</v>
+        <v>1807</v>
       </c>
       <c r="D872" s="9"/>
     </row>
     <row r="873" ht="20.35" customHeight="1">
       <c r="A873" t="s" s="6">
-        <v>1798</v>
+        <v>1808</v>
       </c>
       <c r="B873" s="7"/>
       <c r="C873" t="s" s="8">
-        <v>1799</v>
+        <v>1809</v>
       </c>
       <c r="D873" s="9"/>
     </row>
     <row r="874" ht="20.35" customHeight="1">
       <c r="A874" t="s" s="6">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="B874" s="7"/>
       <c r="C874" t="s" s="8">
-        <v>1801</v>
+        <v>1811</v>
       </c>
       <c r="D874" s="9"/>
     </row>
     <row r="875" ht="20.35" customHeight="1">
       <c r="A875" t="s" s="6">
-        <v>1802</v>
+        <v>1812</v>
       </c>
       <c r="B875" s="7"/>
       <c r="C875" t="s" s="8">
-        <v>1803</v>
+        <v>1813</v>
       </c>
       <c r="D875" s="9"/>
     </row>
     <row r="876" ht="20.35" customHeight="1">
       <c r="A876" t="s" s="6">
-        <v>1804</v>
+        <v>1814</v>
       </c>
       <c r="B876" s="7"/>
       <c r="C876" t="s" s="8">
-        <v>1805</v>
+        <v>1815</v>
       </c>
       <c r="D876" s="9"/>
     </row>
     <row r="877" ht="20.35" customHeight="1">
       <c r="A877" t="s" s="6">
-        <v>1806</v>
+        <v>1816</v>
       </c>
       <c r="B877" s="7"/>
       <c r="C877" t="s" s="8">
-        <v>1807</v>
+        <v>1817</v>
       </c>
       <c r="D877" s="9"/>
     </row>
     <row r="878" ht="20.35" customHeight="1">
       <c r="A878" t="s" s="6">
-        <v>1808</v>
+        <v>1818</v>
       </c>
       <c r="B878" s="7"/>
       <c r="C878" t="s" s="8">
-        <v>1809</v>
+        <v>1819</v>
       </c>
       <c r="D878" s="9"/>
     </row>
     <row r="879" ht="20.35" customHeight="1">
       <c r="A879" t="s" s="6">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="B879" s="7"/>
       <c r="C879" t="s" s="8">
-        <v>1811</v>
+        <v>1821</v>
       </c>
       <c r="D879" s="9"/>
     </row>
     <row r="880" ht="20.35" customHeight="1">
       <c r="A880" t="s" s="6">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="B880" s="7"/>
       <c r="C880" t="s" s="8">
-        <v>1813</v>
+        <v>1823</v>
       </c>
       <c r="D880" s="9"/>
     </row>
     <row r="881" ht="20.35" customHeight="1">
       <c r="A881" t="s" s="6">
-        <v>1814</v>
+        <v>1824</v>
       </c>
       <c r="B881" s="7"/>
       <c r="C881" t="s" s="8">
-        <v>1815</v>
+        <v>1825</v>
       </c>
       <c r="D881" s="9"/>
     </row>
     <row r="882" ht="20.35" customHeight="1">
       <c r="A882" t="s" s="6">
-        <v>1816</v>
+        <v>1826</v>
       </c>
       <c r="B882" s="7"/>
       <c r="C882" t="s" s="8">
-        <v>1817</v>
+        <v>1827</v>
       </c>
       <c r="D882" s="9"/>
     </row>
     <row r="883" ht="20.35" customHeight="1">
       <c r="A883" t="s" s="6">
-        <v>1818</v>
+        <v>1828</v>
       </c>
       <c r="B883" s="7"/>
       <c r="C883" t="s" s="8">
-        <v>1819</v>
+        <v>1829</v>
       </c>
       <c r="D883" s="9"/>
     </row>
     <row r="884" ht="20.35" customHeight="1">
       <c r="A884" t="s" s="6">
-        <v>1820</v>
+        <v>1830</v>
       </c>
       <c r="B884" s="7"/>
       <c r="C884" t="s" s="8">
-        <v>1821</v>
+        <v>1831</v>
       </c>
       <c r="D884" s="9"/>
     </row>
     <row r="885" ht="20.35" customHeight="1">
       <c r="A885" t="s" s="6">
-        <v>1822</v>
+        <v>1832</v>
       </c>
       <c r="B885" s="7"/>
       <c r="C885" t="s" s="8">
-        <v>1823</v>
+        <v>1833</v>
       </c>
       <c r="D885" s="9"/>
     </row>
     <row r="886" ht="20.35" customHeight="1">
       <c r="A886" t="s" s="6">
-        <v>1824</v>
+        <v>1834</v>
       </c>
       <c r="B886" s="7"/>
       <c r="C886" t="s" s="8">
-        <v>1825</v>
+        <v>1835</v>
       </c>
       <c r="D886" s="9"/>
     </row>
     <row r="887" ht="20.35" customHeight="1">
       <c r="A887" t="s" s="6">
-        <v>1826</v>
+        <v>1836</v>
       </c>
       <c r="B887" s="7"/>
       <c r="C887" t="s" s="8">
-        <v>1827</v>
+        <v>1837</v>
       </c>
       <c r="D887" s="9"/>
     </row>
     <row r="888" ht="32.35" customHeight="1">
       <c r="A888" t="s" s="6">
-        <v>1828</v>
+        <v>1838</v>
       </c>
       <c r="B888" s="7"/>
       <c r="C888" t="s" s="8">
-        <v>1829</v>
+        <v>1839</v>
       </c>
       <c r="D888" t="s" s="9">
         <v>1460</v>
@@ -19680,321 +19704,321 @@
     </row>
     <row r="889" ht="20.35" customHeight="1">
       <c r="A889" t="s" s="6">
-        <v>1830</v>
+        <v>1840</v>
       </c>
       <c r="B889" s="7"/>
       <c r="C889" t="s" s="8">
-        <v>1831</v>
+        <v>1841</v>
       </c>
       <c r="D889" s="9"/>
     </row>
     <row r="890" ht="20.35" customHeight="1">
       <c r="A890" t="s" s="6">
-        <v>1832</v>
+        <v>1842</v>
       </c>
       <c r="B890" s="7"/>
       <c r="C890" t="s" s="8">
-        <v>1833</v>
+        <v>1843</v>
       </c>
       <c r="D890" s="9"/>
     </row>
     <row r="891" ht="20.35" customHeight="1">
       <c r="A891" t="s" s="6">
-        <v>1834</v>
+        <v>1844</v>
       </c>
       <c r="B891" s="7"/>
       <c r="C891" t="s" s="8">
-        <v>1835</v>
+        <v>1845</v>
       </c>
       <c r="D891" s="9"/>
     </row>
     <row r="892" ht="20.35" customHeight="1">
       <c r="A892" t="s" s="6">
-        <v>1836</v>
+        <v>1846</v>
       </c>
       <c r="B892" s="7"/>
       <c r="C892" t="s" s="8">
-        <v>1837</v>
+        <v>1847</v>
       </c>
       <c r="D892" s="9"/>
     </row>
     <row r="893" ht="20.35" customHeight="1">
       <c r="A893" t="s" s="6">
-        <v>1838</v>
+        <v>1848</v>
       </c>
       <c r="B893" s="7"/>
       <c r="C893" t="s" s="8">
-        <v>1839</v>
+        <v>1849</v>
       </c>
       <c r="D893" s="9"/>
     </row>
     <row r="894" ht="20.35" customHeight="1">
       <c r="A894" t="s" s="6">
-        <v>1840</v>
+        <v>1850</v>
       </c>
       <c r="B894" s="7"/>
       <c r="C894" t="s" s="8">
-        <v>1841</v>
+        <v>1851</v>
       </c>
       <c r="D894" s="9"/>
     </row>
     <row r="895" ht="20.35" customHeight="1">
       <c r="A895" t="s" s="6">
-        <v>1842</v>
+        <v>1852</v>
       </c>
       <c r="B895" s="7"/>
       <c r="C895" t="s" s="8">
-        <v>1843</v>
+        <v>1853</v>
       </c>
       <c r="D895" s="9"/>
     </row>
     <row r="896" ht="20.35" customHeight="1">
       <c r="A896" t="s" s="6">
-        <v>1844</v>
+        <v>1854</v>
       </c>
       <c r="B896" s="7"/>
       <c r="C896" t="s" s="8">
-        <v>1845</v>
+        <v>1855</v>
       </c>
       <c r="D896" s="9"/>
     </row>
     <row r="897" ht="20.35" customHeight="1">
       <c r="A897" t="s" s="6">
-        <v>1846</v>
+        <v>1856</v>
       </c>
       <c r="B897" s="7"/>
       <c r="C897" t="s" s="8">
-        <v>1847</v>
+        <v>1857</v>
       </c>
       <c r="D897" s="9"/>
     </row>
     <row r="898" ht="20.35" customHeight="1">
       <c r="A898" t="s" s="6">
-        <v>1848</v>
+        <v>1858</v>
       </c>
       <c r="B898" s="7"/>
       <c r="C898" t="s" s="8">
-        <v>1849</v>
+        <v>1859</v>
       </c>
       <c r="D898" s="9"/>
     </row>
     <row r="899" ht="20.35" customHeight="1">
       <c r="A899" t="s" s="6">
-        <v>1850</v>
+        <v>1860</v>
       </c>
       <c r="B899" s="7"/>
       <c r="C899" t="s" s="8">
-        <v>1851</v>
+        <v>1861</v>
       </c>
       <c r="D899" s="9"/>
     </row>
     <row r="900" ht="20.35" customHeight="1">
       <c r="A900" t="s" s="6">
-        <v>1852</v>
+        <v>1862</v>
       </c>
       <c r="B900" s="7"/>
       <c r="C900" t="s" s="8">
-        <v>1853</v>
+        <v>1863</v>
       </c>
       <c r="D900" s="9"/>
     </row>
     <row r="901" ht="20.35" customHeight="1">
       <c r="A901" t="s" s="6">
-        <v>1854</v>
+        <v>1864</v>
       </c>
       <c r="B901" s="7"/>
       <c r="C901" t="s" s="8">
-        <v>1855</v>
+        <v>1865</v>
       </c>
       <c r="D901" s="9"/>
     </row>
     <row r="902" ht="20.35" customHeight="1">
       <c r="A902" t="s" s="6">
-        <v>1856</v>
+        <v>1866</v>
       </c>
       <c r="B902" s="7"/>
       <c r="C902" t="s" s="8">
-        <v>1857</v>
+        <v>1867</v>
       </c>
       <c r="D902" s="9"/>
     </row>
     <row r="903" ht="20.35" customHeight="1">
       <c r="A903" t="s" s="6">
-        <v>1858</v>
+        <v>1868</v>
       </c>
       <c r="B903" s="7"/>
       <c r="C903" t="s" s="8">
-        <v>1859</v>
+        <v>1869</v>
       </c>
       <c r="D903" s="9"/>
     </row>
     <row r="904" ht="20.35" customHeight="1">
       <c r="A904" t="s" s="6">
-        <v>1860</v>
+        <v>1870</v>
       </c>
       <c r="B904" s="7"/>
       <c r="C904" t="s" s="8">
-        <v>1861</v>
+        <v>1871</v>
       </c>
       <c r="D904" s="9"/>
     </row>
     <row r="905" ht="20.35" customHeight="1">
       <c r="A905" t="s" s="6">
-        <v>1862</v>
+        <v>1872</v>
       </c>
       <c r="B905" s="7"/>
       <c r="C905" t="s" s="8">
-        <v>1863</v>
+        <v>1873</v>
       </c>
       <c r="D905" s="9"/>
     </row>
     <row r="906" ht="20.35" customHeight="1">
       <c r="A906" t="s" s="6">
-        <v>1864</v>
+        <v>1874</v>
       </c>
       <c r="B906" s="7"/>
       <c r="C906" t="s" s="8">
-        <v>1865</v>
+        <v>1875</v>
       </c>
       <c r="D906" s="9"/>
     </row>
     <row r="907" ht="20.35" customHeight="1">
       <c r="A907" t="s" s="6">
-        <v>1866</v>
+        <v>1876</v>
       </c>
       <c r="B907" s="7"/>
       <c r="C907" t="s" s="8">
-        <v>1867</v>
+        <v>1877</v>
       </c>
       <c r="D907" s="9"/>
     </row>
     <row r="908" ht="20.35" customHeight="1">
       <c r="A908" t="s" s="6">
-        <v>1868</v>
+        <v>1878</v>
       </c>
       <c r="B908" s="7"/>
       <c r="C908" t="s" s="8">
-        <v>1869</v>
+        <v>1879</v>
       </c>
       <c r="D908" s="9"/>
     </row>
     <row r="909" ht="20.35" customHeight="1">
       <c r="A909" t="s" s="6">
-        <v>1870</v>
+        <v>1880</v>
       </c>
       <c r="B909" s="7"/>
       <c r="C909" t="s" s="8">
-        <v>1871</v>
+        <v>1881</v>
       </c>
       <c r="D909" s="9"/>
     </row>
     <row r="910" ht="20.35" customHeight="1">
       <c r="A910" t="s" s="6">
-        <v>1872</v>
+        <v>1882</v>
       </c>
       <c r="B910" s="7"/>
       <c r="C910" t="s" s="8">
-        <v>1873</v>
+        <v>1883</v>
       </c>
       <c r="D910" s="9"/>
     </row>
     <row r="911" ht="20.35" customHeight="1">
       <c r="A911" t="s" s="6">
-        <v>1874</v>
+        <v>1884</v>
       </c>
       <c r="B911" s="7"/>
       <c r="C911" t="s" s="8">
-        <v>1875</v>
+        <v>1885</v>
       </c>
       <c r="D911" s="9"/>
     </row>
     <row r="912" ht="20.35" customHeight="1">
       <c r="A912" t="s" s="6">
-        <v>1876</v>
+        <v>1886</v>
       </c>
       <c r="B912" s="7"/>
       <c r="C912" t="s" s="8">
-        <v>1877</v>
+        <v>1887</v>
       </c>
       <c r="D912" s="9"/>
     </row>
     <row r="913" ht="20.35" customHeight="1">
       <c r="A913" t="s" s="6">
-        <v>1878</v>
+        <v>1888</v>
       </c>
       <c r="B913" s="7"/>
       <c r="C913" t="s" s="8">
-        <v>1879</v>
+        <v>1889</v>
       </c>
       <c r="D913" s="9"/>
     </row>
     <row r="914" ht="20.35" customHeight="1">
       <c r="A914" t="s" s="6">
-        <v>1880</v>
+        <v>1890</v>
       </c>
       <c r="B914" s="7"/>
       <c r="C914" t="s" s="8">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="D914" s="9"/>
     </row>
     <row r="915" ht="20.35" customHeight="1">
       <c r="A915" t="s" s="6">
-        <v>1882</v>
+        <v>1892</v>
       </c>
       <c r="B915" s="7"/>
       <c r="C915" t="s" s="8">
-        <v>1883</v>
+        <v>1893</v>
       </c>
       <c r="D915" s="9"/>
     </row>
     <row r="916" ht="20.35" customHeight="1">
       <c r="A916" t="s" s="6">
-        <v>1884</v>
+        <v>1894</v>
       </c>
       <c r="B916" s="7"/>
       <c r="C916" t="s" s="8">
-        <v>1885</v>
+        <v>1895</v>
       </c>
       <c r="D916" s="9"/>
     </row>
     <row r="917" ht="20.35" customHeight="1">
       <c r="A917" t="s" s="6">
-        <v>1886</v>
+        <v>1896</v>
       </c>
       <c r="B917" s="7"/>
       <c r="C917" t="s" s="8">
-        <v>1887</v>
+        <v>1897</v>
       </c>
       <c r="D917" s="9"/>
     </row>
     <row r="918" ht="20.35" customHeight="1">
       <c r="A918" t="s" s="6">
-        <v>1888</v>
+        <v>1898</v>
       </c>
       <c r="B918" s="7"/>
       <c r="C918" t="s" s="8">
-        <v>1889</v>
+        <v>1899</v>
       </c>
       <c r="D918" s="9"/>
     </row>
     <row r="919" ht="20.35" customHeight="1">
       <c r="A919" t="s" s="6">
-        <v>1890</v>
+        <v>1900</v>
       </c>
       <c r="B919" s="7"/>
       <c r="C919" t="s" s="8">
-        <v>1891</v>
+        <v>1901</v>
       </c>
       <c r="D919" s="9"/>
     </row>
     <row r="920" ht="32.35" customHeight="1">
       <c r="A920" t="s" s="6">
-        <v>1892</v>
+        <v>1902</v>
       </c>
       <c r="B920" s="7"/>
       <c r="C920" t="s" s="8">
-        <v>1829</v>
+        <v>1839</v>
       </c>
       <c r="D920" t="s" s="9">
         <v>1460</v>
@@ -20002,817 +20026,817 @@
     </row>
     <row r="921" ht="20.35" customHeight="1">
       <c r="A921" t="s" s="6">
-        <v>1893</v>
+        <v>1903</v>
       </c>
       <c r="B921" s="7"/>
       <c r="C921" t="s" s="8">
-        <v>1831</v>
+        <v>1841</v>
       </c>
       <c r="D921" s="9"/>
     </row>
     <row r="922" ht="20.35" customHeight="1">
       <c r="A922" t="s" s="6">
-        <v>1894</v>
+        <v>1904</v>
       </c>
       <c r="B922" s="7"/>
       <c r="C922" t="s" s="8">
-        <v>1833</v>
+        <v>1843</v>
       </c>
       <c r="D922" s="9"/>
     </row>
     <row r="923" ht="20.35" customHeight="1">
       <c r="A923" t="s" s="6">
-        <v>1895</v>
+        <v>1905</v>
       </c>
       <c r="B923" s="7"/>
       <c r="C923" t="s" s="8">
-        <v>1835</v>
+        <v>1845</v>
       </c>
       <c r="D923" s="9"/>
     </row>
     <row r="924" ht="20.35" customHeight="1">
       <c r="A924" t="s" s="6">
-        <v>1896</v>
+        <v>1906</v>
       </c>
       <c r="B924" s="7"/>
       <c r="C924" t="s" s="8">
-        <v>1837</v>
+        <v>1847</v>
       </c>
       <c r="D924" s="9"/>
     </row>
     <row r="925" ht="20.35" customHeight="1">
       <c r="A925" t="s" s="6">
-        <v>1897</v>
+        <v>1907</v>
       </c>
       <c r="B925" s="7"/>
       <c r="C925" t="s" s="8">
-        <v>1839</v>
+        <v>1849</v>
       </c>
       <c r="D925" s="9"/>
     </row>
     <row r="926" ht="20.35" customHeight="1">
       <c r="A926" t="s" s="6">
-        <v>1898</v>
+        <v>1908</v>
       </c>
       <c r="B926" s="7"/>
       <c r="C926" t="s" s="8">
-        <v>1841</v>
+        <v>1851</v>
       </c>
       <c r="D926" s="9"/>
     </row>
     <row r="927" ht="20.35" customHeight="1">
       <c r="A927" t="s" s="6">
-        <v>1899</v>
+        <v>1909</v>
       </c>
       <c r="B927" s="7"/>
       <c r="C927" t="s" s="8">
-        <v>1843</v>
+        <v>1853</v>
       </c>
       <c r="D927" s="9"/>
     </row>
     <row r="928" ht="20.35" customHeight="1">
       <c r="A928" t="s" s="6">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="B928" s="7"/>
       <c r="C928" t="s" s="8">
-        <v>1845</v>
+        <v>1855</v>
       </c>
       <c r="D928" s="9"/>
     </row>
     <row r="929" ht="20.35" customHeight="1">
       <c r="A929" t="s" s="6">
-        <v>1901</v>
+        <v>1911</v>
       </c>
       <c r="B929" s="7"/>
       <c r="C929" t="s" s="8">
-        <v>1847</v>
+        <v>1857</v>
       </c>
       <c r="D929" s="9"/>
     </row>
     <row r="930" ht="20.35" customHeight="1">
       <c r="A930" t="s" s="6">
-        <v>1902</v>
+        <v>1912</v>
       </c>
       <c r="B930" s="7"/>
       <c r="C930" t="s" s="8">
-        <v>1849</v>
+        <v>1859</v>
       </c>
       <c r="D930" s="9"/>
     </row>
     <row r="931" ht="20.35" customHeight="1">
       <c r="A931" t="s" s="6">
-        <v>1903</v>
+        <v>1913</v>
       </c>
       <c r="B931" s="7"/>
       <c r="C931" t="s" s="8">
-        <v>1851</v>
+        <v>1861</v>
       </c>
       <c r="D931" s="9"/>
     </row>
     <row r="932" ht="20.35" customHeight="1">
       <c r="A932" t="s" s="6">
-        <v>1904</v>
+        <v>1914</v>
       </c>
       <c r="B932" s="7"/>
       <c r="C932" t="s" s="8">
-        <v>1853</v>
+        <v>1863</v>
       </c>
       <c r="D932" s="9"/>
     </row>
     <row r="933" ht="20.35" customHeight="1">
       <c r="A933" t="s" s="6">
-        <v>1905</v>
+        <v>1915</v>
       </c>
       <c r="B933" s="7"/>
       <c r="C933" t="s" s="8">
-        <v>1855</v>
+        <v>1865</v>
       </c>
       <c r="D933" s="9"/>
     </row>
     <row r="934" ht="20.35" customHeight="1">
       <c r="A934" t="s" s="6">
-        <v>1906</v>
+        <v>1916</v>
       </c>
       <c r="B934" s="7"/>
       <c r="C934" t="s" s="8">
-        <v>1857</v>
+        <v>1867</v>
       </c>
       <c r="D934" s="9"/>
     </row>
     <row r="935" ht="20.35" customHeight="1">
       <c r="A935" t="s" s="6">
-        <v>1907</v>
+        <v>1917</v>
       </c>
       <c r="B935" s="7"/>
       <c r="C935" t="s" s="8">
-        <v>1859</v>
+        <v>1869</v>
       </c>
       <c r="D935" s="9"/>
     </row>
     <row r="936" ht="20.35" customHeight="1">
       <c r="A936" t="s" s="6">
-        <v>1908</v>
+        <v>1918</v>
       </c>
       <c r="B936" s="7"/>
       <c r="C936" t="s" s="8">
-        <v>1861</v>
+        <v>1871</v>
       </c>
       <c r="D936" s="9"/>
     </row>
     <row r="937" ht="20.35" customHeight="1">
       <c r="A937" t="s" s="6">
-        <v>1909</v>
+        <v>1919</v>
       </c>
       <c r="B937" s="7"/>
       <c r="C937" t="s" s="8">
-        <v>1863</v>
+        <v>1873</v>
       </c>
       <c r="D937" s="9"/>
     </row>
     <row r="938" ht="20.35" customHeight="1">
       <c r="A938" t="s" s="6">
-        <v>1910</v>
+        <v>1920</v>
       </c>
       <c r="B938" s="7"/>
       <c r="C938" t="s" s="8">
-        <v>1865</v>
+        <v>1875</v>
       </c>
       <c r="D938" s="9"/>
     </row>
     <row r="939" ht="20.35" customHeight="1">
       <c r="A939" t="s" s="6">
-        <v>1911</v>
+        <v>1921</v>
       </c>
       <c r="B939" s="7"/>
       <c r="C939" t="s" s="8">
-        <v>1867</v>
+        <v>1877</v>
       </c>
       <c r="D939" s="9"/>
     </row>
     <row r="940" ht="20.35" customHeight="1">
       <c r="A940" t="s" s="6">
-        <v>1912</v>
+        <v>1922</v>
       </c>
       <c r="B940" s="7"/>
       <c r="C940" t="s" s="8">
-        <v>1869</v>
+        <v>1879</v>
       </c>
       <c r="D940" s="9"/>
     </row>
     <row r="941" ht="20.35" customHeight="1">
       <c r="A941" t="s" s="6">
-        <v>1913</v>
+        <v>1923</v>
       </c>
       <c r="B941" s="7"/>
       <c r="C941" t="s" s="8">
-        <v>1871</v>
+        <v>1881</v>
       </c>
       <c r="D941" s="9"/>
     </row>
     <row r="942" ht="20.35" customHeight="1">
       <c r="A942" t="s" s="6">
-        <v>1914</v>
+        <v>1924</v>
       </c>
       <c r="B942" s="7"/>
       <c r="C942" t="s" s="8">
-        <v>1873</v>
+        <v>1883</v>
       </c>
       <c r="D942" s="9"/>
     </row>
     <row r="943" ht="20.35" customHeight="1">
       <c r="A943" t="s" s="6">
-        <v>1915</v>
+        <v>1925</v>
       </c>
       <c r="B943" s="7"/>
       <c r="C943" t="s" s="8">
-        <v>1875</v>
+        <v>1885</v>
       </c>
       <c r="D943" s="9"/>
     </row>
     <row r="944" ht="20.35" customHeight="1">
       <c r="A944" t="s" s="6">
-        <v>1916</v>
+        <v>1926</v>
       </c>
       <c r="B944" s="7"/>
       <c r="C944" t="s" s="8">
-        <v>1877</v>
+        <v>1887</v>
       </c>
       <c r="D944" s="9"/>
     </row>
     <row r="945" ht="20.35" customHeight="1">
       <c r="A945" t="s" s="6">
-        <v>1917</v>
+        <v>1927</v>
       </c>
       <c r="B945" s="7"/>
       <c r="C945" t="s" s="8">
-        <v>1879</v>
+        <v>1889</v>
       </c>
       <c r="D945" s="9"/>
     </row>
     <row r="946" ht="20.35" customHeight="1">
       <c r="A946" t="s" s="6">
-        <v>1918</v>
+        <v>1928</v>
       </c>
       <c r="B946" s="7"/>
       <c r="C946" t="s" s="8">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="D946" s="9"/>
     </row>
     <row r="947" ht="20.35" customHeight="1">
       <c r="A947" t="s" s="6">
-        <v>1919</v>
+        <v>1929</v>
       </c>
       <c r="B947" s="7"/>
       <c r="C947" t="s" s="8">
-        <v>1883</v>
+        <v>1893</v>
       </c>
       <c r="D947" s="9"/>
     </row>
     <row r="948" ht="20.35" customHeight="1">
       <c r="A948" t="s" s="6">
-        <v>1920</v>
+        <v>1930</v>
       </c>
       <c r="B948" s="7"/>
       <c r="C948" t="s" s="8">
-        <v>1885</v>
+        <v>1895</v>
       </c>
       <c r="D948" s="9"/>
     </row>
     <row r="949" ht="20.35" customHeight="1">
       <c r="A949" t="s" s="6">
-        <v>1921</v>
+        <v>1931</v>
       </c>
       <c r="B949" s="7"/>
       <c r="C949" t="s" s="8">
-        <v>1887</v>
+        <v>1897</v>
       </c>
       <c r="D949" s="9"/>
     </row>
     <row r="950" ht="20.35" customHeight="1">
       <c r="A950" t="s" s="6">
-        <v>1922</v>
+        <v>1932</v>
       </c>
       <c r="B950" s="7"/>
       <c r="C950" t="s" s="8">
-        <v>1889</v>
+        <v>1899</v>
       </c>
       <c r="D950" s="9"/>
     </row>
     <row r="951" ht="20.35" customHeight="1">
       <c r="A951" t="s" s="6">
-        <v>1923</v>
+        <v>1933</v>
       </c>
       <c r="B951" s="7"/>
       <c r="C951" t="s" s="8">
-        <v>1891</v>
+        <v>1901</v>
       </c>
       <c r="D951" s="9"/>
     </row>
     <row r="952" ht="92.35" customHeight="1">
       <c r="A952" t="s" s="6">
-        <v>1924</v>
+        <v>1934</v>
       </c>
       <c r="B952" s="7"/>
       <c r="C952" t="s" s="8">
-        <v>1925</v>
+        <v>1935</v>
       </c>
       <c r="D952" t="s" s="9">
-        <v>1926</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="953" ht="20.35" customHeight="1">
       <c r="A953" t="s" s="6">
-        <v>1927</v>
+        <v>1937</v>
       </c>
       <c r="B953" s="7"/>
       <c r="C953" t="s" s="8">
-        <v>1928</v>
+        <v>1938</v>
       </c>
       <c r="D953" s="9"/>
     </row>
     <row r="954" ht="20.35" customHeight="1">
       <c r="A954" t="s" s="6">
-        <v>1929</v>
+        <v>1939</v>
       </c>
       <c r="B954" s="7"/>
       <c r="C954" t="s" s="8">
-        <v>1930</v>
+        <v>1940</v>
       </c>
       <c r="D954" s="9"/>
     </row>
     <row r="955" ht="20.35" customHeight="1">
       <c r="A955" t="s" s="6">
-        <v>1931</v>
+        <v>1941</v>
       </c>
       <c r="B955" s="7"/>
       <c r="C955" t="s" s="8">
-        <v>1932</v>
+        <v>1942</v>
       </c>
       <c r="D955" s="9"/>
     </row>
     <row r="956" ht="20.35" customHeight="1">
       <c r="A956" t="s" s="6">
-        <v>1933</v>
+        <v>1943</v>
       </c>
       <c r="B956" s="7"/>
       <c r="C956" t="s" s="8">
-        <v>1934</v>
+        <v>1944</v>
       </c>
       <c r="D956" s="9"/>
     </row>
     <row r="957" ht="20.35" customHeight="1">
       <c r="A957" t="s" s="6">
-        <v>1935</v>
+        <v>1945</v>
       </c>
       <c r="B957" s="7"/>
       <c r="C957" t="s" s="8">
-        <v>1936</v>
+        <v>1946</v>
       </c>
       <c r="D957" s="9"/>
     </row>
     <row r="958" ht="20.35" customHeight="1">
       <c r="A958" t="s" s="6">
-        <v>1937</v>
+        <v>1947</v>
       </c>
       <c r="B958" s="7"/>
       <c r="C958" t="s" s="8">
-        <v>1938</v>
+        <v>1948</v>
       </c>
       <c r="D958" s="9"/>
     </row>
     <row r="959" ht="20.35" customHeight="1">
       <c r="A959" t="s" s="6">
-        <v>1939</v>
+        <v>1949</v>
       </c>
       <c r="B959" s="7"/>
       <c r="C959" t="s" s="8">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="D959" s="9"/>
     </row>
     <row r="960" ht="20.35" customHeight="1">
       <c r="A960" t="s" s="6">
-        <v>1941</v>
+        <v>1951</v>
       </c>
       <c r="B960" s="7"/>
       <c r="C960" t="s" s="8">
-        <v>1942</v>
+        <v>1952</v>
       </c>
       <c r="D960" s="9"/>
     </row>
     <row r="961" ht="20.35" customHeight="1">
       <c r="A961" t="s" s="6">
-        <v>1943</v>
+        <v>1953</v>
       </c>
       <c r="B961" s="7"/>
       <c r="C961" t="s" s="8">
-        <v>1944</v>
+        <v>1954</v>
       </c>
       <c r="D961" s="9"/>
     </row>
     <row r="962" ht="20.35" customHeight="1">
       <c r="A962" t="s" s="6">
-        <v>1945</v>
+        <v>1955</v>
       </c>
       <c r="B962" s="7"/>
       <c r="C962" t="s" s="8">
-        <v>1946</v>
+        <v>1956</v>
       </c>
       <c r="D962" s="9"/>
     </row>
     <row r="963" ht="20.35" customHeight="1">
       <c r="A963" t="s" s="6">
-        <v>1947</v>
+        <v>1957</v>
       </c>
       <c r="B963" s="7"/>
       <c r="C963" t="s" s="8">
-        <v>1948</v>
+        <v>1958</v>
       </c>
       <c r="D963" s="9"/>
     </row>
     <row r="964" ht="20.35" customHeight="1">
       <c r="A964" t="s" s="6">
-        <v>1949</v>
+        <v>1959</v>
       </c>
       <c r="B964" s="7"/>
       <c r="C964" t="s" s="8">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="D964" s="9"/>
     </row>
     <row r="965" ht="20.35" customHeight="1">
       <c r="A965" t="s" s="6">
-        <v>1951</v>
+        <v>1961</v>
       </c>
       <c r="B965" s="7"/>
       <c r="C965" t="s" s="8">
-        <v>1952</v>
+        <v>1962</v>
       </c>
       <c r="D965" s="9"/>
     </row>
     <row r="966" ht="20.35" customHeight="1">
       <c r="A966" t="s" s="6">
-        <v>1953</v>
+        <v>1963</v>
       </c>
       <c r="B966" s="7"/>
       <c r="C966" t="s" s="8">
-        <v>1954</v>
+        <v>1964</v>
       </c>
       <c r="D966" s="9"/>
     </row>
     <row r="967" ht="20.35" customHeight="1">
       <c r="A967" t="s" s="6">
-        <v>1955</v>
+        <v>1965</v>
       </c>
       <c r="B967" s="7"/>
       <c r="C967" t="s" s="8">
-        <v>1956</v>
+        <v>1966</v>
       </c>
       <c r="D967" s="9"/>
     </row>
     <row r="968" ht="20.35" customHeight="1">
       <c r="A968" t="s" s="6">
-        <v>1957</v>
+        <v>1967</v>
       </c>
       <c r="B968" s="7"/>
       <c r="C968" t="s" s="8">
-        <v>1958</v>
+        <v>1968</v>
       </c>
       <c r="D968" s="9"/>
     </row>
     <row r="969" ht="20.35" customHeight="1">
       <c r="A969" t="s" s="6">
-        <v>1959</v>
+        <v>1969</v>
       </c>
       <c r="B969" s="7"/>
       <c r="C969" t="s" s="8">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="D969" s="9"/>
     </row>
     <row r="970" ht="20.35" customHeight="1">
       <c r="A970" t="s" s="6">
-        <v>1961</v>
+        <v>1971</v>
       </c>
       <c r="B970" s="7"/>
       <c r="C970" t="s" s="8">
-        <v>1962</v>
+        <v>1972</v>
       </c>
       <c r="D970" s="9"/>
     </row>
     <row r="971" ht="20.35" customHeight="1">
       <c r="A971" t="s" s="6">
-        <v>1963</v>
+        <v>1973</v>
       </c>
       <c r="B971" s="7"/>
       <c r="C971" t="s" s="8">
-        <v>1964</v>
+        <v>1974</v>
       </c>
       <c r="D971" s="9"/>
     </row>
     <row r="972" ht="20.35" customHeight="1">
       <c r="A972" t="s" s="6">
-        <v>1965</v>
+        <v>1975</v>
       </c>
       <c r="B972" s="7"/>
       <c r="C972" t="s" s="8">
-        <v>1966</v>
+        <v>1976</v>
       </c>
       <c r="D972" s="9"/>
     </row>
     <row r="973" ht="20.35" customHeight="1">
       <c r="A973" t="s" s="6">
-        <v>1967</v>
+        <v>1977</v>
       </c>
       <c r="B973" s="7"/>
       <c r="C973" t="s" s="8">
-        <v>1968</v>
+        <v>1978</v>
       </c>
       <c r="D973" s="9"/>
     </row>
     <row r="974" ht="20.35" customHeight="1">
       <c r="A974" t="s" s="6">
-        <v>1969</v>
+        <v>1979</v>
       </c>
       <c r="B974" s="7"/>
       <c r="C974" t="s" s="8">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D974" s="9"/>
     </row>
     <row r="975" ht="20.35" customHeight="1">
       <c r="A975" t="s" s="6">
-        <v>1971</v>
+        <v>1981</v>
       </c>
       <c r="B975" s="7"/>
       <c r="C975" t="s" s="8">
-        <v>1972</v>
+        <v>1982</v>
       </c>
       <c r="D975" s="9"/>
     </row>
     <row r="976" ht="20.35" customHeight="1">
       <c r="A976" t="s" s="6">
-        <v>1973</v>
+        <v>1983</v>
       </c>
       <c r="B976" s="7"/>
       <c r="C976" t="s" s="8">
-        <v>1974</v>
+        <v>1984</v>
       </c>
       <c r="D976" s="9"/>
     </row>
     <row r="977" ht="20.35" customHeight="1">
       <c r="A977" t="s" s="6">
-        <v>1975</v>
+        <v>1985</v>
       </c>
       <c r="B977" s="7"/>
       <c r="C977" t="s" s="8">
-        <v>1976</v>
+        <v>1986</v>
       </c>
       <c r="D977" s="9"/>
     </row>
     <row r="978" ht="20.35" customHeight="1">
       <c r="A978" t="s" s="6">
-        <v>1977</v>
+        <v>1987</v>
       </c>
       <c r="B978" s="7"/>
       <c r="C978" t="s" s="8">
-        <v>1978</v>
+        <v>1988</v>
       </c>
       <c r="D978" s="9"/>
     </row>
     <row r="979" ht="20.35" customHeight="1">
       <c r="A979" t="s" s="6">
-        <v>1979</v>
+        <v>1989</v>
       </c>
       <c r="B979" s="7"/>
       <c r="C979" t="s" s="8">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D979" s="9"/>
     </row>
     <row r="980" ht="20.35" customHeight="1">
       <c r="A980" t="s" s="6">
-        <v>1981</v>
+        <v>1991</v>
       </c>
       <c r="B980" s="7"/>
       <c r="C980" t="s" s="8">
-        <v>1982</v>
+        <v>1992</v>
       </c>
       <c r="D980" s="9"/>
     </row>
     <row r="981" ht="20.35" customHeight="1">
       <c r="A981" t="s" s="6">
-        <v>1983</v>
+        <v>1993</v>
       </c>
       <c r="B981" s="7"/>
       <c r="C981" t="s" s="8">
-        <v>1984</v>
+        <v>1994</v>
       </c>
       <c r="D981" s="9"/>
     </row>
     <row r="982" ht="20.35" customHeight="1">
       <c r="A982" t="s" s="6">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="B982" s="7"/>
       <c r="C982" t="s" s="8">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="D982" s="9"/>
     </row>
     <row r="983" ht="20.35" customHeight="1">
       <c r="A983" t="s" s="6">
-        <v>1987</v>
+        <v>1997</v>
       </c>
       <c r="B983" s="7"/>
       <c r="C983" t="s" s="8">
-        <v>1988</v>
+        <v>1998</v>
       </c>
       <c r="D983" s="9"/>
     </row>
     <row r="984" ht="20.35" customHeight="1">
       <c r="A984" t="s" s="6">
-        <v>1989</v>
+        <v>1999</v>
       </c>
       <c r="B984" s="7"/>
       <c r="C984" t="s" s="8">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D984" t="s" s="9">
-        <v>1991</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="985" ht="20.35" customHeight="1">
       <c r="A985" t="s" s="6">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="B985" s="7"/>
       <c r="C985" t="s" s="8">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D985" t="s" s="9">
-        <v>1993</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="986" ht="20.35" customHeight="1">
       <c r="A986" t="s" s="6">
-        <v>1994</v>
+        <v>2004</v>
       </c>
       <c r="B986" s="7"/>
       <c r="C986" t="s" s="8">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D986" t="s" s="9">
-        <v>1995</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="987" ht="20.35" customHeight="1">
       <c r="A987" t="s" s="6">
-        <v>1996</v>
+        <v>2006</v>
       </c>
       <c r="B987" s="7"/>
       <c r="C987" t="s" s="8">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D987" t="s" s="9">
-        <v>1997</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="988" ht="68.35" customHeight="1">
       <c r="A988" t="s" s="6">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="B988" s="7"/>
       <c r="C988" t="s" s="8">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D988" t="s" s="9">
-        <v>1999</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="989" ht="20.35" customHeight="1">
       <c r="A989" t="s" s="6">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="B989" s="7"/>
       <c r="C989" t="s" s="8">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D989" t="s" s="9">
-        <v>2001</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="990" ht="20.35" customHeight="1">
       <c r="A990" t="s" s="6">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="B990" s="7"/>
       <c r="C990" t="s" s="8">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D990" t="s" s="9">
-        <v>2003</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="991" ht="20.35" customHeight="1">
       <c r="A991" t="s" s="6">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="B991" s="7"/>
       <c r="C991" t="s" s="8">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D991" t="s" s="9">
-        <v>2005</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="992" ht="20.35" customHeight="1">
       <c r="A992" t="s" s="6">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="B992" t="s" s="7">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="C992" t="s" s="8">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="D992" t="s" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="993" ht="20.35" customHeight="1">
       <c r="A993" t="s" s="6">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="B993" t="s" s="7">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="C993" t="s" s="8">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="D993" t="s" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="994" ht="44.35" customHeight="1">
       <c r="A994" t="s" s="6">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="B994" s="7"/>
       <c r="C994" t="s" s="8">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="D994" t="s" s="9">
-        <v>2015</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="995" ht="20.35" customHeight="1">
       <c r="A995" t="s" s="6">
-        <v>2016</v>
+        <v>2026</v>
       </c>
       <c r="B995" s="7"/>
       <c r="C995" t="s" s="8">
-        <v>2017</v>
+        <v>2027</v>
       </c>
       <c r="D995" t="s" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="996" ht="20.35" customHeight="1">
       <c r="A996" t="s" s="6">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="B996" s="7"/>
       <c r="C996" t="s" s="8">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="D996" t="s" s="9">
-        <v>2020</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="997" ht="20.35" customHeight="1">
       <c r="A997" t="s" s="6">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="B997" s="7"/>
       <c r="C997" t="s" s="8">
-        <v>2022</v>
+        <v>2032</v>
       </c>
       <c r="D997" t="s" s="9">
-        <v>2023</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="998" ht="20.35" customHeight="1">
       <c r="A998" t="s" s="6">
-        <v>2024</v>
+        <v>2034</v>
       </c>
       <c r="B998" t="s" s="7">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="C998" t="s" s="8">
-        <v>2026</v>
+        <v>2036</v>
       </c>
       <c r="D998" t="s" s="9">
         <v>1429</v>
@@ -20820,49 +20844,49 @@
     </row>
     <row r="999" ht="20.35" customHeight="1">
       <c r="A999" t="s" s="6">
-        <v>2027</v>
+        <v>2037</v>
       </c>
       <c r="B999" s="7"/>
       <c r="C999" t="s" s="8">
-        <v>2028</v>
+        <v>2038</v>
       </c>
       <c r="D999" t="s" s="9">
-        <v>2029</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1000" ht="20.35" customHeight="1">
       <c r="A1000" t="s" s="6">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="B1000" t="s" s="7">
-        <v>2031</v>
+        <v>2041</v>
       </c>
       <c r="C1000" t="s" s="8">
-        <v>2032</v>
+        <v>2042</v>
       </c>
       <c r="D1000" t="s" s="9">
-        <v>2033</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1001" ht="20.35" customHeight="1">
       <c r="A1001" t="s" s="6">
-        <v>2034</v>
+        <v>2044</v>
       </c>
       <c r="B1001" s="7"/>
       <c r="C1001" t="s" s="8">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="D1001" t="s" s="9">
-        <v>2036</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1002" ht="20.35" customHeight="1">
       <c r="A1002" t="s" s="6">
-        <v>2037</v>
+        <v>2047</v>
       </c>
       <c r="B1002" s="7"/>
       <c r="C1002" t="s" s="8">
-        <v>2038</v>
+        <v>2048</v>
       </c>
       <c r="D1002" t="s" s="9">
         <v>1429</v>
@@ -20870,47 +20894,47 @@
     </row>
     <row r="1003" ht="20.35" customHeight="1">
       <c r="A1003" t="s" s="6">
-        <v>2039</v>
+        <v>2049</v>
       </c>
       <c r="B1003" s="7"/>
       <c r="C1003" t="s" s="8">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="D1003" t="s" s="9">
-        <v>2041</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1004" ht="92.35" customHeight="1">
       <c r="A1004" t="s" s="6">
-        <v>2042</v>
+        <v>2052</v>
       </c>
       <c r="B1004" s="7"/>
       <c r="C1004" t="s" s="8">
-        <v>2043</v>
+        <v>2053</v>
       </c>
       <c r="D1004" t="s" s="9">
-        <v>2044</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1005" ht="20.35" customHeight="1">
       <c r="A1005" t="s" s="6">
-        <v>2045</v>
+        <v>2055</v>
       </c>
       <c r="B1005" s="7"/>
       <c r="C1005" t="s" s="8">
-        <v>2046</v>
+        <v>2056</v>
       </c>
       <c r="D1005" t="s" s="9">
-        <v>2047</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1006" ht="20.35" customHeight="1">
       <c r="A1006" t="s" s="6">
-        <v>2048</v>
+        <v>2058</v>
       </c>
       <c r="B1006" s="7"/>
       <c r="C1006" t="s" s="8">
-        <v>2049</v>
+        <v>2059</v>
       </c>
       <c r="D1006" t="s" s="9">
         <v>1429</v>
@@ -20918,11 +20942,11 @@
     </row>
     <row r="1007" ht="20.35" customHeight="1">
       <c r="A1007" t="s" s="6">
-        <v>2050</v>
+        <v>2060</v>
       </c>
       <c r="B1007" s="7"/>
       <c r="C1007" t="s" s="8">
-        <v>2051</v>
+        <v>2061</v>
       </c>
       <c r="D1007" t="s" s="9">
         <v>1429</v>
@@ -20930,11 +20954,11 @@
     </row>
     <row r="1008" ht="20.35" customHeight="1">
       <c r="A1008" t="s" s="6">
-        <v>2052</v>
+        <v>2062</v>
       </c>
       <c r="B1008" s="7"/>
       <c r="C1008" t="s" s="8">
-        <v>2053</v>
+        <v>2063</v>
       </c>
       <c r="D1008" t="s" s="9">
         <v>1429</v>
@@ -20942,11 +20966,11 @@
     </row>
     <row r="1009" ht="20.35" customHeight="1">
       <c r="A1009" t="s" s="6">
-        <v>2054</v>
+        <v>2064</v>
       </c>
       <c r="B1009" s="7"/>
       <c r="C1009" t="s" s="8">
-        <v>2055</v>
+        <v>2065</v>
       </c>
       <c r="D1009" t="s" s="9">
         <v>1429</v>
@@ -20954,99 +20978,99 @@
     </row>
     <row r="1010" ht="20.35" customHeight="1">
       <c r="A1010" t="s" s="6">
-        <v>2056</v>
+        <v>2066</v>
       </c>
       <c r="B1010" t="s" s="7">
-        <v>2057</v>
+        <v>2067</v>
       </c>
       <c r="C1010" t="s" s="8">
-        <v>2058</v>
+        <v>2068</v>
       </c>
       <c r="D1010" t="s" s="9">
-        <v>2059</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1011" ht="20.35" customHeight="1">
       <c r="A1011" t="s" s="6">
-        <v>2060</v>
+        <v>2070</v>
       </c>
       <c r="B1011" t="s" s="7">
-        <v>2061</v>
+        <v>2071</v>
       </c>
       <c r="C1011" t="s" s="8">
-        <v>2062</v>
+        <v>2072</v>
       </c>
       <c r="D1011" s="17"/>
     </row>
     <row r="1012" ht="20.35" customHeight="1">
       <c r="A1012" t="s" s="6">
-        <v>2063</v>
+        <v>2073</v>
       </c>
       <c r="B1012" t="s" s="7">
-        <v>2064</v>
+        <v>2074</v>
       </c>
       <c r="C1012" t="s" s="8">
-        <v>2065</v>
+        <v>2075</v>
       </c>
       <c r="D1012" s="17"/>
     </row>
     <row r="1013" ht="20.35" customHeight="1">
       <c r="A1013" t="s" s="6">
-        <v>2066</v>
+        <v>2076</v>
       </c>
       <c r="B1013" t="s" s="7">
-        <v>2067</v>
+        <v>2077</v>
       </c>
       <c r="C1013" t="s" s="8">
-        <v>2068</v>
+        <v>2078</v>
       </c>
       <c r="D1013" s="17"/>
     </row>
     <row r="1014" ht="20.35" customHeight="1">
       <c r="A1014" t="s" s="6">
-        <v>2069</v>
+        <v>2079</v>
       </c>
       <c r="B1014" t="s" s="7">
-        <v>2070</v>
+        <v>2080</v>
       </c>
       <c r="C1014" t="s" s="8">
-        <v>2071</v>
+        <v>2081</v>
       </c>
       <c r="D1014" s="17"/>
     </row>
     <row r="1015" ht="20.35" customHeight="1">
       <c r="A1015" t="s" s="6">
-        <v>2072</v>
+        <v>2082</v>
       </c>
       <c r="B1015" t="s" s="7">
-        <v>2073</v>
+        <v>2083</v>
       </c>
       <c r="C1015" t="s" s="8">
-        <v>2074</v>
+        <v>2084</v>
       </c>
       <c r="D1015" s="17"/>
     </row>
     <row r="1016" ht="20.35" customHeight="1">
       <c r="A1016" t="s" s="6">
-        <v>2075</v>
+        <v>2085</v>
       </c>
       <c r="B1016" t="s" s="7">
-        <v>2076</v>
+        <v>2086</v>
       </c>
       <c r="C1016" t="s" s="8">
-        <v>2077</v>
+        <v>2087</v>
       </c>
       <c r="D1016" s="17"/>
     </row>
     <row r="1017" ht="20.35" customHeight="1">
       <c r="A1017" t="s" s="6">
-        <v>2078</v>
+        <v>2088</v>
       </c>
       <c r="B1017" t="s" s="7">
-        <v>2079</v>
+        <v>2089</v>
       </c>
       <c r="C1017" t="s" s="8">
-        <v>2080</v>
+        <v>2090</v>
       </c>
       <c r="D1017" s="17"/>
     </row>
@@ -21070,7 +21094,7 @@
     </row>
     <row r="1021" ht="20.35" customHeight="1">
       <c r="A1021" t="s" s="3">
-        <v>2081</v>
+        <v>2091</v>
       </c>
       <c r="B1021" s="18"/>
       <c r="C1021" s="19"/>
@@ -21083,24 +21107,24 @@
       <c r="B1022" s="22"/>
       <c r="C1022" s="23"/>
       <c r="D1022" t="s" s="16">
-        <v>2082</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1023" ht="20.35" customHeight="1">
       <c r="A1023" t="s" s="6">
-        <v>2083</v>
+        <v>2093</v>
       </c>
       <c r="B1023" s="7"/>
       <c r="C1023" t="s" s="8">
         <v>1459</v>
       </c>
       <c r="D1023" t="s" s="9">
-        <v>2084</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1024" ht="20.35" customHeight="1">
       <c r="A1024" t="s" s="6">
-        <v>2085</v>
+        <v>2095</v>
       </c>
       <c r="B1024" s="7"/>
       <c r="C1024" t="s" s="8">
@@ -21110,7 +21134,7 @@
     </row>
     <row r="1025" ht="20.35" customHeight="1">
       <c r="A1025" t="s" s="6">
-        <v>2086</v>
+        <v>2096</v>
       </c>
       <c r="B1025" s="7"/>
       <c r="C1025" t="s" s="8">
@@ -21120,7 +21144,7 @@
     </row>
     <row r="1026" ht="20.35" customHeight="1">
       <c r="A1026" t="s" s="6">
-        <v>2087</v>
+        <v>2097</v>
       </c>
       <c r="B1026" s="7"/>
       <c r="C1026" t="s" s="8">
@@ -21130,7 +21154,7 @@
     </row>
     <row r="1027" ht="20.35" customHeight="1">
       <c r="A1027" t="s" s="6">
-        <v>2088</v>
+        <v>2098</v>
       </c>
       <c r="B1027" s="7"/>
       <c r="C1027" t="s" s="8">
@@ -21140,7 +21164,7 @@
     </row>
     <row r="1028" ht="20.35" customHeight="1">
       <c r="A1028" t="s" s="6">
-        <v>2089</v>
+        <v>2099</v>
       </c>
       <c r="B1028" s="7"/>
       <c r="C1028" t="s" s="8">
@@ -21150,7 +21174,7 @@
     </row>
     <row r="1029" ht="20.35" customHeight="1">
       <c r="A1029" t="s" s="6">
-        <v>2090</v>
+        <v>2100</v>
       </c>
       <c r="B1029" s="7"/>
       <c r="C1029" t="s" s="8">
@@ -21160,7 +21184,7 @@
     </row>
     <row r="1030" ht="20.35" customHeight="1">
       <c r="A1030" t="s" s="6">
-        <v>2091</v>
+        <v>2101</v>
       </c>
       <c r="B1030" s="7"/>
       <c r="C1030" t="s" s="8">
@@ -21170,7 +21194,7 @@
     </row>
     <row r="1031" ht="20.35" customHeight="1">
       <c r="A1031" t="s" s="6">
-        <v>2092</v>
+        <v>2102</v>
       </c>
       <c r="B1031" s="7"/>
       <c r="C1031" t="s" s="8">
@@ -21180,7 +21204,7 @@
     </row>
     <row r="1032" ht="20.35" customHeight="1">
       <c r="A1032" t="s" s="6">
-        <v>2093</v>
+        <v>2103</v>
       </c>
       <c r="B1032" s="7"/>
       <c r="C1032" t="s" s="8">
@@ -21190,7 +21214,7 @@
     </row>
     <row r="1033" ht="20.35" customHeight="1">
       <c r="A1033" t="s" s="6">
-        <v>2094</v>
+        <v>2104</v>
       </c>
       <c r="B1033" s="7"/>
       <c r="C1033" t="s" s="8">
@@ -21200,7 +21224,7 @@
     </row>
     <row r="1034" ht="20.35" customHeight="1">
       <c r="A1034" t="s" s="6">
-        <v>2095</v>
+        <v>2105</v>
       </c>
       <c r="B1034" s="7"/>
       <c r="C1034" t="s" s="8">
@@ -21210,7 +21234,7 @@
     </row>
     <row r="1035" ht="20.35" customHeight="1">
       <c r="A1035" t="s" s="6">
-        <v>2096</v>
+        <v>2106</v>
       </c>
       <c r="B1035" s="7"/>
       <c r="C1035" t="s" s="8">
@@ -21220,7 +21244,7 @@
     </row>
     <row r="1036" ht="20.35" customHeight="1">
       <c r="A1036" t="s" s="6">
-        <v>2097</v>
+        <v>2107</v>
       </c>
       <c r="B1036" s="7"/>
       <c r="C1036" t="s" s="8">
@@ -21230,7 +21254,7 @@
     </row>
     <row r="1037" ht="20.35" customHeight="1">
       <c r="A1037" t="s" s="6">
-        <v>2098</v>
+        <v>2108</v>
       </c>
       <c r="B1037" s="7"/>
       <c r="C1037" t="s" s="8">
@@ -21240,7 +21264,7 @@
     </row>
     <row r="1038" ht="20.35" customHeight="1">
       <c r="A1038" t="s" s="6">
-        <v>2099</v>
+        <v>2109</v>
       </c>
       <c r="B1038" s="7"/>
       <c r="C1038" t="s" s="8">
@@ -21250,7 +21274,7 @@
     </row>
     <row r="1039" ht="20.35" customHeight="1">
       <c r="A1039" t="s" s="6">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="B1039" s="7"/>
       <c r="C1039" t="s" s="8">
@@ -21260,7 +21284,7 @@
     </row>
     <row r="1040" ht="20.35" customHeight="1">
       <c r="A1040" t="s" s="6">
-        <v>2101</v>
+        <v>2111</v>
       </c>
       <c r="B1040" s="7"/>
       <c r="C1040" t="s" s="8">
@@ -21270,7 +21294,7 @@
     </row>
     <row r="1041" ht="20.35" customHeight="1">
       <c r="A1041" t="s" s="6">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="B1041" s="7"/>
       <c r="C1041" t="s" s="8">
@@ -21280,7 +21304,7 @@
     </row>
     <row r="1042" ht="20.35" customHeight="1">
       <c r="A1042" t="s" s="6">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="B1042" s="7"/>
       <c r="C1042" t="s" s="8">
@@ -21290,7 +21314,7 @@
     </row>
     <row r="1043" ht="20.35" customHeight="1">
       <c r="A1043" t="s" s="6">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="B1043" s="24"/>
       <c r="C1043" t="s" s="8">
@@ -21300,7 +21324,7 @@
     </row>
     <row r="1044" ht="20.35" customHeight="1">
       <c r="A1044" t="s" s="6">
-        <v>2105</v>
+        <v>2115</v>
       </c>
       <c r="B1044" s="7"/>
       <c r="C1044" t="s" s="8">
@@ -21310,7 +21334,7 @@
     </row>
     <row r="1045" ht="20.35" customHeight="1">
       <c r="A1045" t="s" s="6">
-        <v>2106</v>
+        <v>2116</v>
       </c>
       <c r="B1045" s="7"/>
       <c r="C1045" t="s" s="8">
@@ -21320,7 +21344,7 @@
     </row>
     <row r="1046" ht="20.35" customHeight="1">
       <c r="A1046" t="s" s="6">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="B1046" s="7"/>
       <c r="C1046" t="s" s="8">
@@ -21330,7 +21354,7 @@
     </row>
     <row r="1047" ht="20.35" customHeight="1">
       <c r="A1047" t="s" s="6">
-        <v>2108</v>
+        <v>2118</v>
       </c>
       <c r="B1047" s="7"/>
       <c r="C1047" t="s" s="8">
@@ -21340,7 +21364,7 @@
     </row>
     <row r="1048" ht="20.35" customHeight="1">
       <c r="A1048" t="s" s="6">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="B1048" s="7"/>
       <c r="C1048" t="s" s="8">
@@ -21350,7 +21374,7 @@
     </row>
     <row r="1049" ht="20.35" customHeight="1">
       <c r="A1049" t="s" s="6">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="B1049" s="7"/>
       <c r="C1049" t="s" s="8">
@@ -21360,7 +21384,7 @@
     </row>
     <row r="1050" ht="20.35" customHeight="1">
       <c r="A1050" t="s" s="6">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="B1050" s="7"/>
       <c r="C1050" t="s" s="8">
@@ -21370,7 +21394,7 @@
     </row>
     <row r="1051" ht="20.35" customHeight="1">
       <c r="A1051" t="s" s="6">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="B1051" s="7"/>
       <c r="C1051" t="s" s="8">
@@ -21380,7 +21404,7 @@
     </row>
     <row r="1052" ht="20.35" customHeight="1">
       <c r="A1052" t="s" s="6">
-        <v>2113</v>
+        <v>2123</v>
       </c>
       <c r="B1052" s="7"/>
       <c r="C1052" t="s" s="8">
@@ -21390,7 +21414,7 @@
     </row>
     <row r="1053" ht="20.35" customHeight="1">
       <c r="A1053" t="s" s="6">
-        <v>2114</v>
+        <v>2124</v>
       </c>
       <c r="B1053" s="7"/>
       <c r="C1053" t="s" s="8">
@@ -21400,7 +21424,7 @@
     </row>
     <row r="1054" ht="20.35" customHeight="1">
       <c r="A1054" t="s" s="6">
-        <v>2115</v>
+        <v>2125</v>
       </c>
       <c r="B1054" s="7"/>
       <c r="C1054" t="s" s="8">
@@ -21410,7 +21434,7 @@
     </row>
     <row r="1055" ht="20.35" customHeight="1">
       <c r="A1055" t="s" s="6">
-        <v>2116</v>
+        <v>2126</v>
       </c>
       <c r="B1055" s="7"/>
       <c r="C1055" t="s" s="8">
@@ -21420,7 +21444,7 @@
     </row>
     <row r="1056" ht="20.35" customHeight="1">
       <c r="A1056" t="s" s="6">
-        <v>2117</v>
+        <v>2127</v>
       </c>
       <c r="B1056" s="7"/>
       <c r="C1056" t="s" s="8">
@@ -21430,7 +21454,7 @@
     </row>
     <row r="1057" ht="20.35" customHeight="1">
       <c r="A1057" t="s" s="6">
-        <v>2118</v>
+        <v>2128</v>
       </c>
       <c r="B1057" s="7"/>
       <c r="C1057" t="s" s="8">
@@ -21440,7 +21464,7 @@
     </row>
     <row r="1058" ht="20.35" customHeight="1">
       <c r="A1058" t="s" s="6">
-        <v>2119</v>
+        <v>2129</v>
       </c>
       <c r="B1058" s="7"/>
       <c r="C1058" t="s" s="8">
@@ -21450,7 +21474,7 @@
     </row>
     <row r="1059" ht="20.35" customHeight="1">
       <c r="A1059" t="s" s="6">
-        <v>2120</v>
+        <v>2130</v>
       </c>
       <c r="B1059" s="7"/>
       <c r="C1059" t="s" s="8">
@@ -21460,7 +21484,7 @@
     </row>
     <row r="1060" ht="20.35" customHeight="1">
       <c r="A1060" t="s" s="6">
-        <v>2121</v>
+        <v>2131</v>
       </c>
       <c r="B1060" s="7"/>
       <c r="C1060" t="s" s="8">
@@ -21470,7 +21494,7 @@
     </row>
     <row r="1061" ht="20.35" customHeight="1">
       <c r="A1061" t="s" s="6">
-        <v>2122</v>
+        <v>2132</v>
       </c>
       <c r="B1061" s="7"/>
       <c r="C1061" t="s" s="8">
@@ -21480,7 +21504,7 @@
     </row>
     <row r="1062" ht="20.35" customHeight="1">
       <c r="A1062" t="s" s="6">
-        <v>2123</v>
+        <v>2133</v>
       </c>
       <c r="B1062" s="7"/>
       <c r="C1062" t="s" s="8">
@@ -21490,241 +21514,241 @@
     </row>
     <row r="1063" ht="20.35" customHeight="1">
       <c r="A1063" t="s" s="6">
-        <v>2124</v>
+        <v>2134</v>
       </c>
       <c r="B1063" s="24"/>
       <c r="C1063" t="s" s="8">
-        <v>2125</v>
+        <v>1701</v>
       </c>
       <c r="D1063" s="25"/>
     </row>
     <row r="1064" ht="20.35" customHeight="1">
       <c r="A1064" t="s" s="6">
-        <v>2126</v>
+        <v>2135</v>
       </c>
       <c r="B1064" s="7"/>
       <c r="C1064" t="s" s="8">
-        <v>2127</v>
+        <v>1703</v>
       </c>
       <c r="D1064" s="9"/>
     </row>
     <row r="1065" ht="20.35" customHeight="1">
       <c r="A1065" t="s" s="6">
-        <v>2128</v>
+        <v>2136</v>
       </c>
       <c r="B1065" s="7"/>
       <c r="C1065" t="s" s="8">
-        <v>2129</v>
+        <v>2137</v>
       </c>
       <c r="D1065" s="9"/>
     </row>
     <row r="1066" ht="20.35" customHeight="1">
       <c r="A1066" t="s" s="6">
-        <v>2130</v>
+        <v>2138</v>
       </c>
       <c r="B1066" s="7"/>
       <c r="C1066" t="s" s="8">
-        <v>2131</v>
+        <v>2139</v>
       </c>
       <c r="D1066" s="9"/>
     </row>
     <row r="1067" ht="20.35" customHeight="1">
       <c r="A1067" t="s" s="6">
-        <v>2132</v>
+        <v>2140</v>
       </c>
       <c r="B1067" s="7"/>
       <c r="C1067" t="s" s="8">
-        <v>2133</v>
+        <v>2141</v>
       </c>
       <c r="D1067" s="9"/>
     </row>
     <row r="1068" ht="20.35" customHeight="1">
       <c r="A1068" t="s" s="6">
-        <v>2134</v>
+        <v>2142</v>
       </c>
       <c r="B1068" s="7"/>
       <c r="C1068" t="s" s="8">
-        <v>2135</v>
+        <v>2143</v>
       </c>
       <c r="D1068" s="9"/>
     </row>
     <row r="1069" ht="20.35" customHeight="1">
       <c r="A1069" t="s" s="6">
-        <v>2136</v>
+        <v>2144</v>
       </c>
       <c r="B1069" s="7"/>
       <c r="C1069" t="s" s="8">
-        <v>2137</v>
+        <v>2145</v>
       </c>
       <c r="D1069" s="9"/>
     </row>
     <row r="1070" ht="20.35" customHeight="1">
       <c r="A1070" t="s" s="6">
-        <v>2138</v>
+        <v>2146</v>
       </c>
       <c r="B1070" s="7"/>
       <c r="C1070" t="s" s="8">
-        <v>2139</v>
+        <v>2147</v>
       </c>
       <c r="D1070" s="9"/>
     </row>
     <row r="1071" ht="20.35" customHeight="1">
       <c r="A1071" t="s" s="6">
-        <v>2140</v>
+        <v>2148</v>
       </c>
       <c r="B1071" s="7"/>
       <c r="C1071" t="s" s="8">
-        <v>1733</v>
+        <v>1705</v>
       </c>
       <c r="D1071" s="9"/>
     </row>
     <row r="1072" ht="20.35" customHeight="1">
       <c r="A1072" t="s" s="6">
-        <v>2141</v>
+        <v>2149</v>
       </c>
       <c r="B1072" s="7"/>
       <c r="C1072" t="s" s="8">
-        <v>1735</v>
+        <v>1707</v>
       </c>
       <c r="D1072" s="9"/>
     </row>
     <row r="1073" ht="20.35" customHeight="1">
       <c r="A1073" t="s" s="6">
-        <v>2142</v>
+        <v>2150</v>
       </c>
       <c r="B1073" s="7"/>
       <c r="C1073" t="s" s="8">
-        <v>1737</v>
+        <v>1709</v>
       </c>
       <c r="D1073" s="9"/>
     </row>
     <row r="1074" ht="20.35" customHeight="1">
       <c r="A1074" t="s" s="6">
-        <v>2143</v>
+        <v>2151</v>
       </c>
       <c r="B1074" s="7"/>
       <c r="C1074" t="s" s="8">
-        <v>1739</v>
+        <v>1711</v>
       </c>
       <c r="D1074" s="9"/>
     </row>
     <row r="1075" ht="20.35" customHeight="1">
       <c r="A1075" t="s" s="6">
-        <v>2144</v>
+        <v>2152</v>
       </c>
       <c r="B1075" s="7"/>
       <c r="C1075" t="s" s="8">
-        <v>1741</v>
+        <v>1713</v>
       </c>
       <c r="D1075" s="9"/>
     </row>
     <row r="1076" ht="20.35" customHeight="1">
       <c r="A1076" t="s" s="6">
-        <v>2145</v>
+        <v>2153</v>
       </c>
       <c r="B1076" s="7"/>
       <c r="C1076" t="s" s="8">
-        <v>1743</v>
+        <v>1715</v>
       </c>
       <c r="D1076" s="9"/>
     </row>
     <row r="1077" ht="20.35" customHeight="1">
       <c r="A1077" t="s" s="6">
-        <v>2146</v>
+        <v>2154</v>
       </c>
       <c r="B1077" s="7"/>
       <c r="C1077" t="s" s="8">
-        <v>1745</v>
+        <v>1755</v>
       </c>
       <c r="D1077" s="9"/>
     </row>
     <row r="1078" ht="20.35" customHeight="1">
       <c r="A1078" t="s" s="6">
-        <v>2147</v>
+        <v>2155</v>
       </c>
       <c r="B1078" s="7"/>
       <c r="C1078" t="s" s="8">
-        <v>1747</v>
+        <v>1757</v>
       </c>
       <c r="D1078" s="9"/>
     </row>
     <row r="1079" ht="20.35" customHeight="1">
       <c r="A1079" t="s" s="6">
-        <v>2148</v>
+        <v>2156</v>
       </c>
       <c r="B1079" s="7"/>
       <c r="C1079" t="s" s="8">
-        <v>1781</v>
+        <v>1791</v>
       </c>
       <c r="D1079" s="9"/>
     </row>
     <row r="1080" ht="20.35" customHeight="1">
       <c r="A1080" t="s" s="6">
-        <v>2149</v>
+        <v>2157</v>
       </c>
       <c r="B1080" s="7"/>
       <c r="C1080" t="s" s="8">
-        <v>1783</v>
+        <v>1793</v>
       </c>
       <c r="D1080" s="9"/>
     </row>
     <row r="1081" ht="20.35" customHeight="1">
       <c r="A1081" t="s" s="6">
-        <v>2150</v>
+        <v>2158</v>
       </c>
       <c r="B1081" s="7"/>
       <c r="C1081" t="s" s="8">
-        <v>1785</v>
+        <v>1795</v>
       </c>
       <c r="D1081" s="9"/>
     </row>
     <row r="1082" ht="20.35" customHeight="1">
       <c r="A1082" t="s" s="6">
-        <v>2151</v>
+        <v>2159</v>
       </c>
       <c r="B1082" s="7"/>
       <c r="C1082" t="s" s="8">
-        <v>1787</v>
+        <v>1797</v>
       </c>
       <c r="D1082" s="9"/>
     </row>
     <row r="1083" ht="20.35" customHeight="1">
       <c r="A1083" t="s" s="6">
-        <v>2152</v>
+        <v>2160</v>
       </c>
       <c r="B1083" s="24"/>
       <c r="C1083" t="s" s="8">
-        <v>1789</v>
+        <v>1799</v>
       </c>
       <c r="D1083" s="25"/>
     </row>
     <row r="1084" ht="20.35" customHeight="1">
       <c r="A1084" t="s" s="6">
-        <v>2153</v>
+        <v>2161</v>
       </c>
       <c r="B1084" s="7"/>
       <c r="C1084" t="s" s="8">
-        <v>1791</v>
+        <v>1801</v>
       </c>
       <c r="D1084" s="9"/>
     </row>
     <row r="1085" ht="20.35" customHeight="1">
       <c r="A1085" t="s" s="6">
-        <v>2154</v>
+        <v>2162</v>
       </c>
       <c r="B1085" s="7"/>
       <c r="C1085" t="s" s="8">
-        <v>1793</v>
+        <v>1803</v>
       </c>
       <c r="D1085" s="9"/>
     </row>
     <row r="1086" ht="20.35" customHeight="1">
       <c r="A1086" t="s" s="6">
-        <v>2155</v>
+        <v>2163</v>
       </c>
       <c r="B1086" s="7"/>
       <c r="C1086" t="s" s="8">
-        <v>1795</v>
+        <v>1805</v>
       </c>
       <c r="D1086" s="9"/>
     </row>
@@ -21754,7 +21778,7 @@
     </row>
     <row r="1091" ht="20.35" customHeight="1">
       <c r="A1091" t="s" s="3">
-        <v>2156</v>
+        <v>2164</v>
       </c>
       <c r="B1091" s="18"/>
       <c r="C1091" s="19"/>
@@ -21769,24 +21793,24 @@
       </c>
       <c r="C1092" s="23"/>
       <c r="D1092" t="s" s="16">
-        <v>2082</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1093" ht="104.35" customHeight="1">
       <c r="A1093" t="s" s="26">
-        <v>2157</v>
+        <v>2165</v>
       </c>
       <c r="B1093" s="7"/>
       <c r="C1093" t="s" s="8">
         <v>353</v>
       </c>
       <c r="D1093" t="s" s="9">
-        <v>2158</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1094" ht="164.35" customHeight="1">
       <c r="A1094" t="s" s="6">
-        <v>2159</v>
+        <v>2167</v>
       </c>
       <c r="B1094" t="s" s="7">
         <v>360</v>
@@ -21795,12 +21819,12 @@
         <v>361</v>
       </c>
       <c r="D1094" t="s" s="27">
-        <v>2160</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1095" ht="56.35" customHeight="1">
       <c r="A1095" t="s" s="6">
-        <v>2161</v>
+        <v>2169</v>
       </c>
       <c r="B1095" t="s" s="7">
         <v>363</v>
@@ -21814,55 +21838,55 @@
     </row>
     <row r="1096" ht="20.35" customHeight="1">
       <c r="A1096" t="s" s="6">
-        <v>2162</v>
+        <v>2170</v>
       </c>
       <c r="B1096" s="7"/>
       <c r="C1096" t="s" s="8">
         <v>366</v>
       </c>
       <c r="D1096" t="s" s="9">
-        <v>2163</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1097" ht="20.35" customHeight="1">
       <c r="A1097" t="s" s="6">
-        <v>2164</v>
+        <v>2172</v>
       </c>
       <c r="B1097" s="7"/>
       <c r="C1097" t="s" s="8">
         <v>368</v>
       </c>
       <c r="D1097" t="s" s="9">
-        <v>2165</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1098" ht="20.35" customHeight="1">
       <c r="A1098" t="s" s="6">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="B1098" s="7"/>
       <c r="C1098" t="s" s="8">
         <v>370</v>
       </c>
       <c r="D1098" t="s" s="9">
-        <v>2167</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1099" ht="104.35" customHeight="1">
       <c r="A1099" t="s" s="26">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="B1099" s="7"/>
       <c r="C1099" t="s" s="8">
         <v>353</v>
       </c>
       <c r="D1099" t="s" s="9">
-        <v>2169</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1100" ht="152.35" customHeight="1">
       <c r="A1100" t="s" s="6">
-        <v>2170</v>
+        <v>2178</v>
       </c>
       <c r="B1100" t="s" s="7">
         <v>360</v>
@@ -21871,12 +21895,12 @@
         <v>361</v>
       </c>
       <c r="D1100" t="s" s="9">
-        <v>2171</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1101" ht="56.35" customHeight="1">
       <c r="A1101" t="s" s="6">
-        <v>2172</v>
+        <v>2180</v>
       </c>
       <c r="B1101" t="s" s="7">
         <v>363</v>
@@ -21890,55 +21914,55 @@
     </row>
     <row r="1102" ht="20.35" customHeight="1">
       <c r="A1102" t="s" s="6">
-        <v>2173</v>
+        <v>2181</v>
       </c>
       <c r="B1102" s="7"/>
       <c r="C1102" t="s" s="8">
         <v>366</v>
       </c>
       <c r="D1102" t="s" s="9">
-        <v>2163</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1103" ht="20.35" customHeight="1">
       <c r="A1103" t="s" s="6">
-        <v>2174</v>
+        <v>2182</v>
       </c>
       <c r="B1103" s="7"/>
       <c r="C1103" t="s" s="8">
         <v>368</v>
       </c>
       <c r="D1103" t="s" s="9">
-        <v>2165</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1104" ht="20.35" customHeight="1">
       <c r="A1104" t="s" s="6">
-        <v>2175</v>
+        <v>2183</v>
       </c>
       <c r="B1104" s="7"/>
       <c r="C1104" t="s" s="8">
         <v>370</v>
       </c>
       <c r="D1104" t="s" s="9">
-        <v>2167</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1105" ht="104.35" customHeight="1">
       <c r="A1105" t="s" s="26">
-        <v>2176</v>
+        <v>2184</v>
       </c>
       <c r="B1105" s="7"/>
       <c r="C1105" t="s" s="8">
         <v>353</v>
       </c>
       <c r="D1105" t="s" s="9">
-        <v>2177</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1106" ht="152.35" customHeight="1">
       <c r="A1106" t="s" s="6">
-        <v>2178</v>
+        <v>2186</v>
       </c>
       <c r="B1106" t="s" s="7">
         <v>360</v>
@@ -21947,12 +21971,12 @@
         <v>361</v>
       </c>
       <c r="D1106" t="s" s="9">
-        <v>2171</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1107" ht="152.35" customHeight="1">
       <c r="A1107" t="s" s="6">
-        <v>2179</v>
+        <v>2187</v>
       </c>
       <c r="B1107" t="s" s="7">
         <v>363</v>
@@ -21961,60 +21985,60 @@
         <v>364</v>
       </c>
       <c r="D1107" t="s" s="9">
-        <v>2171</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1108" ht="20.35" customHeight="1">
       <c r="A1108" t="s" s="6">
-        <v>2180</v>
+        <v>2188</v>
       </c>
       <c r="B1108" s="7"/>
       <c r="C1108" t="s" s="8">
         <v>366</v>
       </c>
       <c r="D1108" t="s" s="9">
-        <v>2181</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1109" ht="20.35" customHeight="1">
       <c r="A1109" t="s" s="6">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="B1109" s="7"/>
       <c r="C1109" t="s" s="8">
         <v>368</v>
       </c>
       <c r="D1109" t="s" s="9">
-        <v>2181</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1110" ht="20.35" customHeight="1">
       <c r="A1110" t="s" s="6">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="B1110" s="7"/>
       <c r="C1110" t="s" s="8">
         <v>370</v>
       </c>
       <c r="D1110" t="s" s="9">
-        <v>2165</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1111" ht="104.35" customHeight="1">
       <c r="A1111" t="s" s="26">
-        <v>2184</v>
+        <v>2192</v>
       </c>
       <c r="B1111" s="7"/>
       <c r="C1111" t="s" s="8">
         <v>353</v>
       </c>
       <c r="D1111" t="s" s="9">
-        <v>2185</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1112" ht="152.35" customHeight="1">
       <c r="A1112" t="s" s="6">
-        <v>2186</v>
+        <v>2194</v>
       </c>
       <c r="B1112" t="s" s="7">
         <v>360</v>
@@ -22023,12 +22047,12 @@
         <v>361</v>
       </c>
       <c r="D1112" t="s" s="9">
-        <v>2171</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1113" ht="56.35" customHeight="1">
       <c r="A1113" t="s" s="6">
-        <v>2187</v>
+        <v>2195</v>
       </c>
       <c r="B1113" t="s" s="7">
         <v>363</v>
@@ -22037,60 +22061,60 @@
         <v>364</v>
       </c>
       <c r="D1113" t="s" s="9">
-        <v>2188</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1114" ht="20.35" customHeight="1">
       <c r="A1114" t="s" s="6">
-        <v>2189</v>
+        <v>2197</v>
       </c>
       <c r="B1114" s="7"/>
       <c r="C1114" t="s" s="8">
         <v>366</v>
       </c>
       <c r="D1114" t="s" s="9">
-        <v>2181</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1115" ht="20.35" customHeight="1">
       <c r="A1115" t="s" s="6">
-        <v>2190</v>
+        <v>2198</v>
       </c>
       <c r="B1115" s="7"/>
       <c r="C1115" t="s" s="8">
         <v>368</v>
       </c>
       <c r="D1115" t="s" s="9">
-        <v>2181</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1116" ht="20.35" customHeight="1">
       <c r="A1116" t="s" s="6">
-        <v>2191</v>
+        <v>2199</v>
       </c>
       <c r="B1116" s="7"/>
       <c r="C1116" t="s" s="8">
         <v>370</v>
       </c>
       <c r="D1116" t="s" s="9">
-        <v>2163</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1117" ht="92.35" customHeight="1">
       <c r="A1117" t="s" s="26">
-        <v>2192</v>
+        <v>2200</v>
       </c>
       <c r="B1117" s="7"/>
       <c r="C1117" t="s" s="8">
         <v>353</v>
       </c>
       <c r="D1117" t="s" s="9">
-        <v>2193</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1118" ht="176.35" customHeight="1">
       <c r="A1118" t="s" s="6">
-        <v>2194</v>
+        <v>2202</v>
       </c>
       <c r="B1118" t="s" s="7">
         <v>360</v>
@@ -22099,12 +22123,12 @@
         <v>361</v>
       </c>
       <c r="D1118" t="s" s="9">
-        <v>2195</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1119" ht="56.35" customHeight="1">
       <c r="A1119" t="s" s="6">
-        <v>2196</v>
+        <v>2204</v>
       </c>
       <c r="B1119" t="s" s="7">
         <v>363</v>
@@ -22113,60 +22137,60 @@
         <v>364</v>
       </c>
       <c r="D1119" t="s" s="9">
-        <v>2197</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1120" ht="20.35" customHeight="1">
       <c r="A1120" t="s" s="6">
-        <v>2198</v>
+        <v>2206</v>
       </c>
       <c r="B1120" s="7"/>
       <c r="C1120" t="s" s="8">
         <v>366</v>
       </c>
       <c r="D1120" t="s" s="9">
-        <v>2199</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1121" ht="20.35" customHeight="1">
       <c r="A1121" t="s" s="6">
-        <v>2200</v>
+        <v>2208</v>
       </c>
       <c r="B1121" s="7"/>
       <c r="C1121" t="s" s="8">
         <v>368</v>
       </c>
       <c r="D1121" t="s" s="9">
-        <v>2201</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1122" ht="44.35" customHeight="1">
       <c r="A1122" t="s" s="6">
-        <v>2202</v>
+        <v>2210</v>
       </c>
       <c r="B1122" s="7"/>
       <c r="C1122" t="s" s="8">
         <v>370</v>
       </c>
       <c r="D1122" t="s" s="9">
-        <v>2203</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1123" ht="116.35" customHeight="1">
       <c r="A1123" t="s" s="26">
-        <v>2204</v>
+        <v>2212</v>
       </c>
       <c r="B1123" s="7"/>
       <c r="C1123" t="s" s="8">
         <v>353</v>
       </c>
       <c r="D1123" t="s" s="9">
-        <v>2205</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1124" ht="152.35" customHeight="1">
       <c r="A1124" t="s" s="6">
-        <v>2206</v>
+        <v>2214</v>
       </c>
       <c r="B1124" t="s" s="7">
         <v>360</v>
@@ -22175,12 +22199,12 @@
         <v>361</v>
       </c>
       <c r="D1124" t="s" s="9">
-        <v>2171</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1125" ht="56.35" customHeight="1">
       <c r="A1125" t="s" s="6">
-        <v>2207</v>
+        <v>2215</v>
       </c>
       <c r="B1125" t="s" s="7">
         <v>363</v>
@@ -22194,55 +22218,55 @@
     </row>
     <row r="1126" ht="20.35" customHeight="1">
       <c r="A1126" t="s" s="6">
-        <v>2208</v>
+        <v>2216</v>
       </c>
       <c r="B1126" s="7"/>
       <c r="C1126" t="s" s="8">
         <v>366</v>
       </c>
       <c r="D1126" t="s" s="9">
-        <v>2209</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1127" ht="20.35" customHeight="1">
       <c r="A1127" t="s" s="6">
-        <v>2210</v>
+        <v>2218</v>
       </c>
       <c r="B1127" s="7"/>
       <c r="C1127" t="s" s="8">
         <v>368</v>
       </c>
       <c r="D1127" t="s" s="9">
-        <v>2163</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1128" ht="20.35" customHeight="1">
       <c r="A1128" t="s" s="6">
-        <v>2211</v>
+        <v>2219</v>
       </c>
       <c r="B1128" s="7"/>
       <c r="C1128" t="s" s="8">
         <v>370</v>
       </c>
       <c r="D1128" t="s" s="9">
-        <v>2181</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1129" ht="248.35" customHeight="1">
       <c r="A1129" t="s" s="26">
-        <v>2212</v>
+        <v>2220</v>
       </c>
       <c r="B1129" s="7"/>
       <c r="C1129" t="s" s="8">
         <v>353</v>
       </c>
       <c r="D1129" t="s" s="9">
-        <v>2213</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="1130" ht="56.35" customHeight="1">
       <c r="A1130" t="s" s="6">
-        <v>2214</v>
+        <v>2222</v>
       </c>
       <c r="B1130" t="s" s="7">
         <v>360</v>
@@ -22251,12 +22275,12 @@
         <v>361</v>
       </c>
       <c r="D1130" t="s" s="9">
-        <v>2215</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1131" ht="56.35" customHeight="1">
       <c r="A1131" t="s" s="6">
-        <v>2216</v>
+        <v>2224</v>
       </c>
       <c r="B1131" t="s" s="7">
         <v>363</v>
@@ -22265,60 +22289,60 @@
         <v>364</v>
       </c>
       <c r="D1131" t="s" s="9">
-        <v>2217</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1132" ht="68.35" customHeight="1">
       <c r="A1132" t="s" s="6">
-        <v>2218</v>
+        <v>2226</v>
       </c>
       <c r="B1132" s="7"/>
       <c r="C1132" t="s" s="8">
         <v>366</v>
       </c>
       <c r="D1132" t="s" s="9">
-        <v>2219</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1133" ht="32.35" customHeight="1">
       <c r="A1133" t="s" s="6">
-        <v>2220</v>
+        <v>2228</v>
       </c>
       <c r="B1133" s="7"/>
       <c r="C1133" t="s" s="8">
         <v>368</v>
       </c>
       <c r="D1133" t="s" s="9">
-        <v>2221</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1134" ht="32.35" customHeight="1">
       <c r="A1134" t="s" s="6">
-        <v>2222</v>
+        <v>2230</v>
       </c>
       <c r="B1134" s="7"/>
       <c r="C1134" t="s" s="8">
         <v>370</v>
       </c>
       <c r="D1134" t="s" s="9">
-        <v>2223</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1135" ht="20.35" customHeight="1">
       <c r="A1135" t="s" s="26">
-        <v>2224</v>
+        <v>2232</v>
       </c>
       <c r="B1135" s="7"/>
       <c r="C1135" t="s" s="8">
         <v>372</v>
       </c>
       <c r="D1135" t="s" s="9">
-        <v>2225</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1136" ht="20.35" customHeight="1">
       <c r="A1136" t="s" s="6">
-        <v>2226</v>
+        <v>2234</v>
       </c>
       <c r="B1136" t="s" s="7">
         <v>360</v>
@@ -22330,7 +22354,7 @@
     </row>
     <row r="1137" ht="56.35" customHeight="1">
       <c r="A1137" t="s" s="6">
-        <v>2227</v>
+        <v>2235</v>
       </c>
       <c r="B1137" t="s" s="7">
         <v>363</v>
@@ -22339,60 +22363,60 @@
         <v>364</v>
       </c>
       <c r="D1137" t="s" s="9">
-        <v>2228</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1138" ht="20.35" customHeight="1">
       <c r="A1138" t="s" s="6">
-        <v>2229</v>
+        <v>2237</v>
       </c>
       <c r="B1138" s="7"/>
       <c r="C1138" t="s" s="8">
         <v>366</v>
       </c>
       <c r="D1138" t="s" s="9">
-        <v>2230</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1139" ht="20.35" customHeight="1">
       <c r="A1139" t="s" s="6">
-        <v>2231</v>
+        <v>2239</v>
       </c>
       <c r="B1139" s="7"/>
       <c r="C1139" t="s" s="8">
         <v>368</v>
       </c>
       <c r="D1139" t="s" s="9">
-        <v>2232</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1140" ht="20.35" customHeight="1">
       <c r="A1140" t="s" s="6">
-        <v>2233</v>
+        <v>2241</v>
       </c>
       <c r="B1140" s="7"/>
       <c r="C1140" t="s" s="8">
         <v>370</v>
       </c>
       <c r="D1140" t="s" s="9">
-        <v>2234</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1141" ht="116.35" customHeight="1">
       <c r="A1141" t="s" s="26">
-        <v>2235</v>
+        <v>2243</v>
       </c>
       <c r="B1141" s="7"/>
       <c r="C1141" t="s" s="8">
         <v>353</v>
       </c>
       <c r="D1141" t="s" s="9">
-        <v>2236</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1142" ht="56.35" customHeight="1">
       <c r="A1142" t="s" s="6">
-        <v>2237</v>
+        <v>2245</v>
       </c>
       <c r="B1142" t="s" s="7">
         <v>360</v>
@@ -22406,7 +22430,7 @@
     </row>
     <row r="1143" ht="56.35" customHeight="1">
       <c r="A1143" t="s" s="6">
-        <v>2238</v>
+        <v>2246</v>
       </c>
       <c r="B1143" t="s" s="7">
         <v>363</v>
@@ -22415,43 +22439,43 @@
         <v>364</v>
       </c>
       <c r="D1143" t="s" s="9">
-        <v>2188</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1144" ht="20.35" customHeight="1">
       <c r="A1144" t="s" s="6">
-        <v>2239</v>
+        <v>2247</v>
       </c>
       <c r="B1144" s="7"/>
       <c r="C1144" t="s" s="8">
         <v>366</v>
       </c>
       <c r="D1144" t="s" s="9">
-        <v>2240</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1145" ht="20.35" customHeight="1">
       <c r="A1145" t="s" s="6">
-        <v>2241</v>
+        <v>2249</v>
       </c>
       <c r="B1145" s="7"/>
       <c r="C1145" t="s" s="8">
         <v>368</v>
       </c>
       <c r="D1145" t="s" s="9">
-        <v>2240</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1146" ht="20.35" customHeight="1">
       <c r="A1146" t="s" s="6">
-        <v>2242</v>
+        <v>2250</v>
       </c>
       <c r="B1146" s="7"/>
       <c r="C1146" t="s" s="8">
         <v>370</v>
       </c>
       <c r="D1146" t="s" s="9">
-        <v>2243</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1147" ht="20.35" customHeight="1">
@@ -22468,7 +22492,7 @@
     </row>
     <row r="1149" ht="20.35" customHeight="1">
       <c r="A1149" t="s" s="3">
-        <v>2244</v>
+        <v>2252</v>
       </c>
       <c r="B1149" s="28"/>
       <c r="C1149" s="29"/>
@@ -22481,52 +22505,52 @@
       <c r="B1150" s="14"/>
       <c r="C1150" s="15"/>
       <c r="D1150" t="s" s="31">
-        <v>2245</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1151" ht="20.35" customHeight="1">
       <c r="A1151" t="s" s="6">
-        <v>2246</v>
+        <v>2254</v>
       </c>
       <c r="B1151" s="7"/>
       <c r="C1151" s="8"/>
       <c r="D1151" t="s" s="9">
-        <v>2247</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1152" ht="20.35" customHeight="1">
       <c r="A1152" t="s" s="6">
-        <v>2248</v>
+        <v>2256</v>
       </c>
       <c r="B1152" s="7"/>
       <c r="C1152" s="8"/>
       <c r="D1152" t="s" s="9">
-        <v>2249</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1153" ht="20.35" customHeight="1">
       <c r="A1153" t="s" s="6">
-        <v>2250</v>
+        <v>2258</v>
       </c>
       <c r="B1153" s="7"/>
       <c r="C1153" s="8"/>
       <c r="D1153" t="s" s="9">
-        <v>2251</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1154" ht="20.35" customHeight="1">
       <c r="A1154" t="s" s="6">
-        <v>2252</v>
+        <v>2260</v>
       </c>
       <c r="B1154" s="7"/>
       <c r="C1154" s="8"/>
       <c r="D1154" t="s" s="9">
-        <v>2253</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1155" ht="20.35" customHeight="1">
       <c r="A1155" t="s" s="6">
-        <v>2254</v>
+        <v>2262</v>
       </c>
       <c r="B1155" s="7"/>
       <c r="C1155" s="8"/>
@@ -22534,7 +22558,7 @@
     </row>
     <row r="1156" ht="20.35" customHeight="1">
       <c r="A1156" t="s" s="6">
-        <v>2255</v>
+        <v>2263</v>
       </c>
       <c r="B1156" s="7"/>
       <c r="C1156" s="8"/>
@@ -22542,7 +22566,7 @@
     </row>
     <row r="1157" ht="20.35" customHeight="1">
       <c r="A1157" t="s" s="6">
-        <v>2256</v>
+        <v>2264</v>
       </c>
       <c r="B1157" s="7"/>
       <c r="C1157" s="8"/>
@@ -22550,7 +22574,7 @@
     </row>
     <row r="1158" ht="20.35" customHeight="1">
       <c r="A1158" t="s" s="6">
-        <v>2257</v>
+        <v>2265</v>
       </c>
       <c r="B1158" s="7"/>
       <c r="C1158" s="8"/>
@@ -22558,7 +22582,7 @@
     </row>
     <row r="1159" ht="20.35" customHeight="1">
       <c r="A1159" t="s" s="6">
-        <v>2258</v>
+        <v>2266</v>
       </c>
       <c r="B1159" s="7"/>
       <c r="C1159" s="8"/>
@@ -22566,7 +22590,7 @@
     </row>
     <row r="1160" ht="20.35" customHeight="1">
       <c r="A1160" t="s" s="6">
-        <v>2259</v>
+        <v>2267</v>
       </c>
       <c r="B1160" s="7"/>
       <c r="C1160" s="8"/>
@@ -22574,7 +22598,7 @@
     </row>
     <row r="1161" ht="20.35" customHeight="1">
       <c r="A1161" t="s" s="6">
-        <v>2260</v>
+        <v>2268</v>
       </c>
       <c r="B1161" s="7"/>
       <c r="C1161" s="8"/>
@@ -22582,22 +22606,22 @@
     </row>
     <row r="1162" ht="68.35" customHeight="1">
       <c r="A1162" t="s" s="6">
-        <v>2261</v>
+        <v>2269</v>
       </c>
       <c r="B1162" s="7"/>
       <c r="C1162" s="8"/>
       <c r="D1162" t="s" s="9">
-        <v>2262</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1163" ht="20.35" customHeight="1">
       <c r="A1163" t="s" s="6">
-        <v>2263</v>
+        <v>2271</v>
       </c>
       <c r="B1163" s="7"/>
       <c r="C1163" s="8"/>
       <c r="D1163" t="s" s="9">
-        <v>2264</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1164" ht="20.35" customHeight="1">
@@ -22614,12 +22638,12 @@
     </row>
     <row r="1166" ht="20.35" customHeight="1">
       <c r="A1166" t="s" s="3">
-        <v>2265</v>
+        <v>2273</v>
       </c>
       <c r="B1166" s="18"/>
       <c r="C1166" s="19"/>
       <c r="D1166" t="s" s="32">
-        <v>2266</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1167" ht="20.35" customHeight="1">
@@ -22630,274 +22654,274 @@
         <v>5</v>
       </c>
       <c r="C1167" t="s" s="15">
-        <v>2267</v>
+        <v>2275</v>
       </c>
       <c r="D1167" t="s" s="31">
-        <v>2082</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1168" ht="44.35" customHeight="1">
       <c r="A1168" t="s" s="6">
-        <v>2268</v>
+        <v>2276</v>
       </c>
       <c r="B1168" s="7"/>
       <c r="C1168" t="s" s="8">
-        <v>2269</v>
+        <v>2277</v>
       </c>
       <c r="D1168" t="s" s="9">
-        <v>2270</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1169" ht="20.35" customHeight="1">
       <c r="A1169" t="s" s="6">
-        <v>2271</v>
+        <v>2279</v>
       </c>
       <c r="B1169" s="7"/>
       <c r="C1169" t="s" s="8">
-        <v>2272</v>
+        <v>2280</v>
       </c>
       <c r="D1169" t="s" s="9">
-        <v>2273</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1170" ht="20.35" customHeight="1">
       <c r="A1170" t="s" s="6">
-        <v>2274</v>
+        <v>2282</v>
       </c>
       <c r="B1170" s="7"/>
       <c r="C1170" t="s" s="8">
-        <v>2272</v>
+        <v>2280</v>
       </c>
       <c r="D1170" t="s" s="9">
-        <v>2275</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1171" ht="20.35" customHeight="1">
       <c r="A1171" t="s" s="6">
-        <v>2276</v>
+        <v>2284</v>
       </c>
       <c r="B1171" s="7"/>
       <c r="C1171" t="s" s="8">
-        <v>2272</v>
+        <v>2280</v>
       </c>
       <c r="D1171" t="s" s="9">
-        <v>2277</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1172" ht="44.35" customHeight="1">
       <c r="A1172" t="s" s="6">
-        <v>2278</v>
+        <v>2286</v>
       </c>
       <c r="B1172" s="7"/>
       <c r="C1172" t="s" s="8">
-        <v>2279</v>
+        <v>2287</v>
       </c>
       <c r="D1172" t="s" s="9">
-        <v>2280</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1173" ht="20.35" customHeight="1">
       <c r="A1173" t="s" s="6">
-        <v>2281</v>
+        <v>2289</v>
       </c>
       <c r="B1173" s="7"/>
       <c r="C1173" t="s" s="8">
-        <v>2282</v>
+        <v>2290</v>
       </c>
       <c r="D1173" t="s" s="9">
-        <v>2283</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1174" ht="20.35" customHeight="1">
       <c r="A1174" t="s" s="6">
-        <v>2284</v>
+        <v>2292</v>
       </c>
       <c r="B1174" s="7"/>
       <c r="C1174" t="s" s="8">
-        <v>2285</v>
+        <v>2293</v>
       </c>
       <c r="D1174" t="s" s="9">
-        <v>2283</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1175" ht="20.35" customHeight="1">
       <c r="A1175" t="s" s="6">
-        <v>2286</v>
+        <v>2294</v>
       </c>
       <c r="B1175" s="7"/>
       <c r="C1175" t="s" s="8">
-        <v>2287</v>
+        <v>2295</v>
       </c>
       <c r="D1175" t="s" s="9">
-        <v>2283</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1176" ht="20.35" customHeight="1">
       <c r="A1176" t="s" s="6">
-        <v>2288</v>
+        <v>2296</v>
       </c>
       <c r="B1176" s="7"/>
       <c r="C1176" t="s" s="8">
-        <v>2289</v>
+        <v>2297</v>
       </c>
       <c r="D1176" t="s" s="9">
-        <v>2283</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1177" ht="20.35" customHeight="1">
       <c r="A1177" t="s" s="6">
-        <v>2290</v>
+        <v>2298</v>
       </c>
       <c r="B1177" s="7"/>
       <c r="C1177" t="s" s="8">
+        <v>2299</v>
+      </c>
+      <c r="D1177" t="s" s="9">
         <v>2291</v>
-      </c>
-      <c r="D1177" t="s" s="9">
-        <v>2283</v>
       </c>
     </row>
     <row r="1178" ht="20.35" customHeight="1">
       <c r="A1178" t="s" s="6">
-        <v>2292</v>
+        <v>2300</v>
       </c>
       <c r="B1178" s="7"/>
       <c r="C1178" t="s" s="8">
-        <v>2293</v>
+        <v>2301</v>
       </c>
       <c r="D1178" t="s" s="9">
-        <v>2283</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1179" ht="20.35" customHeight="1">
       <c r="A1179" t="s" s="6">
-        <v>2294</v>
+        <v>2302</v>
       </c>
       <c r="B1179" s="7"/>
       <c r="C1179" t="s" s="8">
-        <v>2295</v>
+        <v>2303</v>
       </c>
       <c r="D1179" t="s" s="9">
-        <v>2283</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1180" ht="56.35" customHeight="1">
       <c r="A1180" t="s" s="6">
-        <v>2296</v>
+        <v>2304</v>
       </c>
       <c r="B1180" s="7"/>
       <c r="C1180" t="s" s="8">
-        <v>2297</v>
+        <v>2305</v>
       </c>
       <c r="D1180" t="s" s="9">
-        <v>2298</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1181" ht="32.35" customHeight="1">
       <c r="A1181" t="s" s="6">
-        <v>2299</v>
+        <v>2307</v>
       </c>
       <c r="B1181" s="7"/>
       <c r="C1181" t="s" s="8">
-        <v>2300</v>
+        <v>2308</v>
       </c>
       <c r="D1181" t="s" s="9">
-        <v>2301</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1182" ht="32.35" customHeight="1">
       <c r="A1182" t="s" s="6">
-        <v>2302</v>
+        <v>2310</v>
       </c>
       <c r="B1182" s="7"/>
       <c r="C1182" t="s" s="8">
-        <v>2303</v>
+        <v>2311</v>
       </c>
       <c r="D1182" t="s" s="9">
-        <v>2301</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1183" ht="32.35" customHeight="1">
       <c r="A1183" t="s" s="6">
-        <v>2304</v>
+        <v>2312</v>
       </c>
       <c r="B1183" s="7"/>
       <c r="C1183" t="s" s="8">
-        <v>2305</v>
+        <v>2313</v>
       </c>
       <c r="D1183" t="s" s="9">
-        <v>2301</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1184" ht="32.35" customHeight="1">
       <c r="A1184" t="s" s="6">
-        <v>2306</v>
+        <v>2314</v>
       </c>
       <c r="B1184" s="7"/>
       <c r="C1184" t="s" s="8">
-        <v>2307</v>
+        <v>2315</v>
       </c>
       <c r="D1184" t="s" s="9">
-        <v>2301</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1185" ht="56.35" customHeight="1">
       <c r="A1185" t="s" s="6">
-        <v>2308</v>
+        <v>2316</v>
       </c>
       <c r="B1185" s="7"/>
       <c r="C1185" t="s" s="8">
-        <v>2309</v>
+        <v>2317</v>
       </c>
       <c r="D1185" t="s" s="9">
-        <v>2298</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1186" ht="32.35" customHeight="1">
       <c r="A1186" t="s" s="6">
-        <v>2310</v>
+        <v>2318</v>
       </c>
       <c r="B1186" s="7"/>
       <c r="C1186" t="s" s="8">
-        <v>2311</v>
+        <v>2319</v>
       </c>
       <c r="D1186" t="s" s="9">
-        <v>2301</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1187" ht="32.35" customHeight="1">
       <c r="A1187" t="s" s="6">
-        <v>2312</v>
+        <v>2320</v>
       </c>
       <c r="B1187" s="7"/>
       <c r="C1187" t="s" s="8">
-        <v>2313</v>
+        <v>2321</v>
       </c>
       <c r="D1187" t="s" s="9">
-        <v>2301</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1188" ht="32.35" customHeight="1">
       <c r="A1188" t="s" s="6">
-        <v>2314</v>
+        <v>2322</v>
       </c>
       <c r="B1188" s="7"/>
       <c r="C1188" t="s" s="8">
-        <v>2315</v>
+        <v>2323</v>
       </c>
       <c r="D1188" t="s" s="9">
-        <v>2301</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1189" ht="32.35" customHeight="1">
       <c r="A1189" t="s" s="6">
-        <v>2316</v>
+        <v>2324</v>
       </c>
       <c r="B1189" s="7"/>
       <c r="C1189" t="s" s="8">
-        <v>2317</v>
+        <v>2325</v>
       </c>
       <c r="D1189" t="s" s="9">
-        <v>2301</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1190" ht="20.35" customHeight="1">
@@ -22920,7 +22944,7 @@
     </row>
     <row r="1193" ht="20.35" customHeight="1">
       <c r="A1193" t="s" s="3">
-        <v>2318</v>
+        <v>2326</v>
       </c>
       <c r="B1193" s="18"/>
       <c r="C1193" s="19"/>
@@ -22934,10 +22958,10 @@
         <v>5</v>
       </c>
       <c r="C1194" t="s" s="15">
-        <v>2267</v>
+        <v>2275</v>
       </c>
       <c r="D1194" t="s" s="31">
-        <v>2082</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1195" ht="20.35" customHeight="1">
@@ -22948,10 +22972,10 @@
         <v>22</v>
       </c>
       <c r="C1195" t="s" s="8">
-        <v>2319</v>
+        <v>2327</v>
       </c>
       <c r="D1195" t="s" s="9">
-        <v>2320</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1196" ht="20.35" customHeight="1">
@@ -22962,7 +22986,7 @@
         <v>29</v>
       </c>
       <c r="C1196" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1196" s="9"/>
     </row>
@@ -23004,7 +23028,7 @@
         <v>101</v>
       </c>
       <c r="C1200" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1200" s="9"/>
     </row>
@@ -23016,7 +23040,7 @@
         <v>105</v>
       </c>
       <c r="C1201" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1201" s="9"/>
     </row>
@@ -23028,7 +23052,7 @@
         <v>109</v>
       </c>
       <c r="C1202" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1202" s="9"/>
     </row>
@@ -23140,10 +23164,10 @@
         <v>231</v>
       </c>
       <c r="C1213" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1213" t="s" s="9">
-        <v>2322</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1214" ht="20.35" customHeight="1">
@@ -23154,10 +23178,10 @@
         <v>234</v>
       </c>
       <c r="C1214" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1214" t="s" s="9">
-        <v>2323</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1215" ht="20.35" customHeight="1">
@@ -23168,10 +23192,10 @@
         <v>238</v>
       </c>
       <c r="C1215" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1215" t="s" s="9">
-        <v>2324</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1216" ht="20.35" customHeight="1">
@@ -23302,7 +23326,7 @@
         <v>284</v>
       </c>
       <c r="C1228" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1228" s="9"/>
     </row>
@@ -23314,7 +23338,7 @@
         <v>287</v>
       </c>
       <c r="C1229" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1229" s="9"/>
     </row>
@@ -23326,7 +23350,7 @@
         <v>290</v>
       </c>
       <c r="C1230" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1230" s="9"/>
     </row>
@@ -23338,10 +23362,10 @@
         <v>296</v>
       </c>
       <c r="C1231" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1231" t="s" s="9">
-        <v>2325</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1232" ht="20.35" customHeight="1">
@@ -23352,10 +23376,10 @@
         <v>300</v>
       </c>
       <c r="C1232" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1232" t="s" s="9">
-        <v>2323</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1233" ht="20.35" customHeight="1">
@@ -23366,10 +23390,10 @@
         <v>310</v>
       </c>
       <c r="C1233" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1233" t="s" s="9">
-        <v>2323</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1234" ht="20.35" customHeight="1">
@@ -23380,10 +23404,10 @@
         <v>313</v>
       </c>
       <c r="C1234" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1234" t="s" s="9">
-        <v>2323</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1235" ht="20.35" customHeight="1">
@@ -23414,7 +23438,7 @@
         <v>325</v>
       </c>
       <c r="C1237" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1237" s="9"/>
     </row>
@@ -23466,10 +23490,10 @@
         <v>347</v>
       </c>
       <c r="C1242" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1242" t="s" s="9">
-        <v>2323</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1243" ht="20.35" customHeight="1">
@@ -23480,10 +23504,10 @@
         <v>356</v>
       </c>
       <c r="C1243" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1243" t="s" s="9">
-        <v>2326</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1244" ht="20.35" customHeight="1">
@@ -23494,7 +23518,7 @@
         <v>360</v>
       </c>
       <c r="C1244" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1244" s="9"/>
     </row>
@@ -23516,10 +23540,10 @@
         <v>377</v>
       </c>
       <c r="C1246" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1246" t="s" s="9">
-        <v>2326</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1247" ht="20.35" customHeight="1">
@@ -23530,7 +23554,7 @@
         <v>380</v>
       </c>
       <c r="C1247" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1247" s="9"/>
     </row>
@@ -23542,7 +23566,7 @@
         <v>385</v>
       </c>
       <c r="C1248" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1248" s="17"/>
     </row>
@@ -23554,10 +23578,10 @@
         <v>395</v>
       </c>
       <c r="C1249" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1249" t="s" s="9">
-        <v>2323</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1250" ht="20.35" customHeight="1">
@@ -23568,10 +23592,10 @@
         <v>398</v>
       </c>
       <c r="C1250" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1250" t="s" s="9">
-        <v>2326</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1251" ht="20.35" customHeight="1">
@@ -23582,10 +23606,10 @@
         <v>408</v>
       </c>
       <c r="C1251" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1251" t="s" s="9">
-        <v>2327</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1252" ht="20.35" customHeight="1">
@@ -23596,10 +23620,10 @@
         <v>412</v>
       </c>
       <c r="C1252" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1252" t="s" s="9">
-        <v>2323</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1253" ht="20.35" customHeight="1">
@@ -23610,10 +23634,10 @@
         <v>423</v>
       </c>
       <c r="C1253" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1253" t="s" s="9">
-        <v>2326</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1254" ht="20.35" customHeight="1">
@@ -23624,7 +23648,7 @@
         <v>426</v>
       </c>
       <c r="C1254" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1254" s="9"/>
     </row>
@@ -23646,7 +23670,7 @@
         <v>440</v>
       </c>
       <c r="C1256" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1256" s="9"/>
     </row>
@@ -23658,7 +23682,7 @@
         <v>468</v>
       </c>
       <c r="C1257" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1257" s="9"/>
     </row>
@@ -23750,7 +23774,7 @@
         <v>1195</v>
       </c>
       <c r="C1266" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1266" s="9"/>
     </row>
@@ -23762,7 +23786,7 @@
         <v>1202</v>
       </c>
       <c r="C1267" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1267" s="9"/>
     </row>
@@ -23774,7 +23798,7 @@
         <v>1206</v>
       </c>
       <c r="C1268" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1268" s="9"/>
     </row>
@@ -23786,7 +23810,7 @@
         <v>1209</v>
       </c>
       <c r="C1269" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1269" s="9"/>
     </row>
@@ -23958,7 +23982,7 @@
         <v>1431</v>
       </c>
       <c r="C1286" t="s" s="8">
-        <v>2328</v>
+        <v>2336</v>
       </c>
       <c r="D1286" s="9"/>
     </row>
@@ -23970,10 +23994,10 @@
         <v>1436</v>
       </c>
       <c r="C1287" t="s" s="8">
-        <v>2329</v>
+        <v>2337</v>
       </c>
       <c r="D1287" t="s" s="9">
-        <v>2330</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1288" ht="20.35" customHeight="1">
@@ -23984,7 +24008,7 @@
         <v>1441</v>
       </c>
       <c r="C1288" t="s" s="8">
-        <v>2331</v>
+        <v>2339</v>
       </c>
       <c r="D1288" s="9"/>
     </row>
@@ -23996,7 +24020,7 @@
         <v>1444</v>
       </c>
       <c r="C1289" t="s" s="8">
-        <v>2332</v>
+        <v>2340</v>
       </c>
       <c r="D1289" s="9"/>
     </row>
@@ -24008,10 +24032,10 @@
         <v>1447</v>
       </c>
       <c r="C1290" t="s" s="8">
-        <v>2333</v>
+        <v>2341</v>
       </c>
       <c r="D1290" t="s" s="9">
-        <v>2334</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1291" ht="20.35" customHeight="1">
@@ -24022,7 +24046,7 @@
         <v>1453</v>
       </c>
       <c r="C1291" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1291" s="9"/>
     </row>
@@ -24034,143 +24058,143 @@
         <v>1456</v>
       </c>
       <c r="C1292" t="s" s="8">
-        <v>2335</v>
+        <v>2343</v>
       </c>
       <c r="D1292" t="s" s="9">
-        <v>2336</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1293" ht="56.35" customHeight="1">
       <c r="A1293" t="s" s="6">
-        <v>2056</v>
+        <v>2066</v>
       </c>
       <c r="B1293" t="s" s="7">
-        <v>2057</v>
+        <v>2067</v>
       </c>
       <c r="C1293" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1293" t="s" s="9">
-        <v>2337</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1294" ht="20.35" customHeight="1">
       <c r="A1294" t="s" s="6">
-        <v>2060</v>
+        <v>2070</v>
       </c>
       <c r="B1294" t="s" s="7">
-        <v>2061</v>
+        <v>2071</v>
       </c>
       <c r="C1294" s="8"/>
       <c r="D1294" s="9"/>
     </row>
     <row r="1295" ht="20.35" customHeight="1">
       <c r="A1295" t="s" s="6">
-        <v>2063</v>
+        <v>2073</v>
       </c>
       <c r="B1295" t="s" s="7">
-        <v>2064</v>
+        <v>2074</v>
       </c>
       <c r="C1295" s="8"/>
       <c r="D1295" s="9"/>
     </row>
     <row r="1296" ht="20.35" customHeight="1">
       <c r="A1296" t="s" s="6">
-        <v>2066</v>
+        <v>2076</v>
       </c>
       <c r="B1296" t="s" s="7">
-        <v>2067</v>
+        <v>2077</v>
       </c>
       <c r="C1296" s="8"/>
       <c r="D1296" s="9"/>
     </row>
     <row r="1297" ht="20.35" customHeight="1">
       <c r="A1297" t="s" s="6">
-        <v>2069</v>
+        <v>2079</v>
       </c>
       <c r="B1297" t="s" s="7">
-        <v>2070</v>
+        <v>2080</v>
       </c>
       <c r="C1297" s="8"/>
       <c r="D1297" s="9"/>
     </row>
     <row r="1298" ht="20.35" customHeight="1">
       <c r="A1298" t="s" s="6">
-        <v>2072</v>
+        <v>2082</v>
       </c>
       <c r="B1298" t="s" s="7">
-        <v>2073</v>
+        <v>2083</v>
       </c>
       <c r="C1298" s="8"/>
       <c r="D1298" s="9"/>
     </row>
     <row r="1299" ht="20.35" customHeight="1">
       <c r="A1299" t="s" s="6">
-        <v>2075</v>
+        <v>2085</v>
       </c>
       <c r="B1299" t="s" s="7">
-        <v>2076</v>
+        <v>2086</v>
       </c>
       <c r="C1299" s="8"/>
       <c r="D1299" s="9"/>
     </row>
     <row r="1300" ht="20.35" customHeight="1">
       <c r="A1300" t="s" s="6">
-        <v>2078</v>
+        <v>2088</v>
       </c>
       <c r="B1300" t="s" s="7">
-        <v>2079</v>
+        <v>2089</v>
       </c>
       <c r="C1300" s="8"/>
       <c r="D1300" s="9"/>
     </row>
     <row r="1301" ht="20.35" customHeight="1">
       <c r="A1301" t="s" s="6">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="B1301" t="s" s="7">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="C1301" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1301" s="9"/>
     </row>
     <row r="1302" ht="20.35" customHeight="1">
       <c r="A1302" t="s" s="6">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="B1302" t="s" s="7">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="C1302" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1302" s="9"/>
     </row>
     <row r="1303" ht="20.35" customHeight="1">
       <c r="A1303" t="s" s="6">
-        <v>2024</v>
+        <v>2034</v>
       </c>
       <c r="B1303" t="s" s="7">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="C1303" t="s" s="8">
-        <v>2338</v>
+        <v>2346</v>
       </c>
       <c r="D1303" t="s" s="9">
-        <v>2339</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1304" ht="20.35" customHeight="1">
       <c r="A1304" t="s" s="6">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="B1304" t="s" s="7">
-        <v>2031</v>
+        <v>2041</v>
       </c>
       <c r="C1304" t="s" s="8">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="D1304" s="9"/>
     </row>
@@ -24188,7 +24212,7 @@
     </row>
     <row r="1307" ht="20.35" customHeight="1">
       <c r="A1307" t="s" s="3">
-        <v>2340</v>
+        <v>2348</v>
       </c>
       <c r="B1307" s="18"/>
       <c r="C1307" s="19"/>
@@ -24203,67 +24227,67 @@
         <v>6</v>
       </c>
       <c r="D1308" t="s" s="31">
-        <v>2082</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1309" ht="56.35" customHeight="1">
       <c r="A1309" t="s" s="6">
-        <v>2341</v>
+        <v>2349</v>
       </c>
       <c r="B1309" s="7"/>
       <c r="C1309" t="s" s="8">
-        <v>2342</v>
+        <v>2350</v>
       </c>
       <c r="D1309" t="s" s="9">
-        <v>2343</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1310" ht="20.35" customHeight="1">
       <c r="A1310" t="s" s="35">
-        <v>2344</v>
+        <v>2352</v>
       </c>
       <c r="B1310" s="7"/>
       <c r="C1310" t="s" s="8">
-        <v>2345</v>
+        <v>2353</v>
       </c>
       <c r="D1310" t="s" s="9">
-        <v>2346</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1311" ht="44.35" customHeight="1">
       <c r="A1311" t="s" s="35">
-        <v>2347</v>
+        <v>2355</v>
       </c>
       <c r="B1311" s="7"/>
       <c r="C1311" t="s" s="8">
-        <v>2342</v>
+        <v>2350</v>
       </c>
       <c r="D1311" t="s" s="9">
-        <v>2348</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1312" ht="32.35" customHeight="1">
       <c r="A1312" t="s" s="35">
-        <v>2349</v>
+        <v>2357</v>
       </c>
       <c r="B1312" s="7"/>
       <c r="C1312" t="s" s="8">
-        <v>2350</v>
+        <v>2358</v>
       </c>
       <c r="D1312" t="s" s="9">
-        <v>2346</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1313" ht="56.35" customHeight="1">
       <c r="A1313" t="s" s="35">
-        <v>2351</v>
+        <v>2359</v>
       </c>
       <c r="B1313" s="7"/>
       <c r="C1313" t="s" s="8">
-        <v>2352</v>
+        <v>2360</v>
       </c>
       <c r="D1313" t="s" s="9">
-        <v>2353</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1314" ht="20.35" customHeight="1">
@@ -24280,7 +24304,7 @@
     </row>
     <row r="1316" ht="20.35" customHeight="1">
       <c r="A1316" t="s" s="3">
-        <v>2354</v>
+        <v>2362</v>
       </c>
       <c r="B1316" s="18"/>
       <c r="C1316" s="19"/>
@@ -24295,193 +24319,193 @@
         <v>6</v>
       </c>
       <c r="D1317" t="s" s="31">
-        <v>2082</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1318" ht="32.35" customHeight="1">
       <c r="A1318" t="s" s="6">
-        <v>2355</v>
+        <v>2363</v>
       </c>
       <c r="B1318" s="7"/>
       <c r="C1318" t="s" s="8">
-        <v>2356</v>
+        <v>2364</v>
       </c>
       <c r="D1318" t="s" s="9">
-        <v>2357</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1319" ht="32.35" customHeight="1">
       <c r="A1319" t="s" s="6">
-        <v>2358</v>
+        <v>2366</v>
       </c>
       <c r="B1319" s="7"/>
       <c r="C1319" t="s" s="8">
-        <v>2359</v>
+        <v>2367</v>
       </c>
       <c r="D1319" t="s" s="9">
-        <v>2360</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1320" ht="20.35" customHeight="1">
       <c r="A1320" t="s" s="6">
-        <v>2361</v>
+        <v>2369</v>
       </c>
       <c r="B1320" s="7"/>
       <c r="C1320" t="s" s="8">
-        <v>2359</v>
+        <v>2367</v>
       </c>
       <c r="D1320" s="9"/>
     </row>
     <row r="1321" ht="20.35" customHeight="1">
       <c r="A1321" t="s" s="6">
-        <v>2362</v>
+        <v>2370</v>
       </c>
       <c r="B1321" s="7"/>
       <c r="C1321" t="s" s="8">
-        <v>2359</v>
+        <v>2367</v>
       </c>
       <c r="D1321" s="9"/>
     </row>
     <row r="1322" ht="20.35" customHeight="1">
       <c r="A1322" t="s" s="6">
-        <v>2363</v>
+        <v>2371</v>
       </c>
       <c r="B1322" s="7"/>
       <c r="C1322" t="s" s="8">
-        <v>2359</v>
+        <v>2367</v>
       </c>
       <c r="D1322" s="9"/>
     </row>
     <row r="1323" ht="20.35" customHeight="1">
       <c r="A1323" t="s" s="6">
-        <v>2364</v>
+        <v>2372</v>
       </c>
       <c r="B1323" s="7"/>
       <c r="C1323" t="s" s="8">
-        <v>2359</v>
+        <v>2367</v>
       </c>
       <c r="D1323" s="9"/>
     </row>
     <row r="1324" ht="20.35" customHeight="1">
       <c r="A1324" t="s" s="6">
-        <v>2365</v>
+        <v>2373</v>
       </c>
       <c r="B1324" s="7"/>
       <c r="C1324" t="s" s="8">
-        <v>2359</v>
+        <v>2367</v>
       </c>
       <c r="D1324" s="9"/>
     </row>
     <row r="1325" ht="20.35" customHeight="1">
       <c r="A1325" t="s" s="6">
-        <v>2366</v>
+        <v>2374</v>
       </c>
       <c r="B1325" s="7"/>
       <c r="C1325" t="s" s="8">
-        <v>2359</v>
+        <v>2367</v>
       </c>
       <c r="D1325" s="9"/>
     </row>
     <row r="1326" ht="20.35" customHeight="1">
       <c r="A1326" t="s" s="6">
-        <v>2367</v>
+        <v>2375</v>
       </c>
       <c r="B1326" s="7"/>
       <c r="C1326" t="s" s="8">
-        <v>2359</v>
+        <v>2367</v>
       </c>
       <c r="D1326" s="9"/>
     </row>
     <row r="1327" ht="20.35" customHeight="1">
       <c r="A1327" t="s" s="6">
-        <v>2368</v>
+        <v>2376</v>
       </c>
       <c r="B1327" s="7"/>
       <c r="C1327" t="s" s="8">
-        <v>2369</v>
+        <v>2377</v>
       </c>
       <c r="D1327" s="9"/>
     </row>
     <row r="1328" ht="20.35" customHeight="1">
       <c r="A1328" t="s" s="6">
-        <v>2370</v>
+        <v>2378</v>
       </c>
       <c r="B1328" s="7"/>
       <c r="C1328" t="s" s="8">
-        <v>2369</v>
+        <v>2377</v>
       </c>
       <c r="D1328" s="9"/>
     </row>
     <row r="1329" ht="20.35" customHeight="1">
       <c r="A1329" t="s" s="6">
-        <v>2371</v>
+        <v>2379</v>
       </c>
       <c r="B1329" s="7"/>
       <c r="C1329" t="s" s="8">
-        <v>2369</v>
+        <v>2377</v>
       </c>
       <c r="D1329" s="9"/>
     </row>
     <row r="1330" ht="20.35" customHeight="1">
       <c r="A1330" t="s" s="6">
-        <v>2372</v>
+        <v>2380</v>
       </c>
       <c r="B1330" s="7"/>
       <c r="C1330" t="s" s="8">
-        <v>2369</v>
+        <v>2377</v>
       </c>
       <c r="D1330" s="9"/>
     </row>
     <row r="1331" ht="20.35" customHeight="1">
       <c r="A1331" t="s" s="6">
-        <v>2373</v>
+        <v>2381</v>
       </c>
       <c r="B1331" s="7"/>
       <c r="C1331" t="s" s="8">
-        <v>2369</v>
+        <v>2377</v>
       </c>
       <c r="D1331" s="9"/>
     </row>
     <row r="1332" ht="20.35" customHeight="1">
       <c r="A1332" t="s" s="6">
-        <v>2374</v>
+        <v>2382</v>
       </c>
       <c r="B1332" s="7"/>
       <c r="C1332" t="s" s="8">
-        <v>2369</v>
+        <v>2377</v>
       </c>
       <c r="D1332" s="9"/>
     </row>
     <row r="1333" ht="20.35" customHeight="1">
       <c r="A1333" t="s" s="6">
-        <v>2375</v>
+        <v>2383</v>
       </c>
       <c r="B1333" s="7"/>
       <c r="C1333" t="s" s="8">
-        <v>2369</v>
+        <v>2377</v>
       </c>
       <c r="D1333" s="9"/>
     </row>
     <row r="1334" ht="20.35" customHeight="1">
       <c r="A1334" t="s" s="6">
-        <v>2376</v>
+        <v>2384</v>
       </c>
       <c r="B1334" s="7"/>
       <c r="C1334" t="s" s="8">
-        <v>2369</v>
+        <v>2377</v>
       </c>
       <c r="D1334" s="9"/>
     </row>
     <row r="1335" ht="20.35" customHeight="1">
       <c r="A1335" t="s" s="6">
-        <v>2377</v>
+        <v>2385</v>
       </c>
       <c r="B1335" s="7"/>
       <c r="C1335" t="s" s="8">
-        <v>2378</v>
+        <v>2386</v>
       </c>
       <c r="D1335" t="s" s="9">
-        <v>2379</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1336" ht="20.35" customHeight="1">
